--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
   <si>
     <t>person_id</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>ZH</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -489,7 +492,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -767,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,13 +780,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:U2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="11" style="4"/>
+    <col min="20" max="20" width="11" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -838,13 +843,13 @@
       <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
       <c r="S1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
       <c r="U1" t="s">
@@ -862,11 +867,14 @@
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
         <v>62</v>
       </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
       <c r="G2">
         <v>1881</v>
       </c>
@@ -885,14 +893,14 @@
       <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="R2" t="s">
-        <v>66</v>
+      <c r="R2" s="4">
+        <v>42919</v>
       </c>
       <c r="S2" t="s">
         <v>67</v>
       </c>
-      <c r="T2" t="s">
-        <v>66</v>
+      <c r="T2" s="4">
+        <v>42919</v>
       </c>
       <c r="U2" t="s">
         <v>67</v>
@@ -909,14 +917,42 @@
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>1881</v>
+      </c>
+      <c r="H3">
+        <v>1936</v>
       </c>
       <c r="I3" t="s">
         <v>71</v>
       </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="U3" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1188,7 +1224,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
   <si>
     <t>person_id</t>
   </si>
@@ -770,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -781,7 +781,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -933,6 +933,12 @@
       </c>
       <c r="I3" t="s">
         <v>71</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
       </c>
       <c r="O3" t="s">
         <v>62</v>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
   <si>
     <t>person_id</t>
   </si>
@@ -389,6 +389,24 @@
   </si>
   <si>
     <t>ZH</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>Hua</t>
+  </si>
+  <si>
+    <t>T00002</t>
+  </si>
+  <si>
+    <t>G019</t>
+  </si>
+  <si>
+    <t>academic writing</t>
   </si>
 </sst>
 </file>
@@ -770,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -954,6 +972,20 @@
       </c>
       <c r="U3" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1028,9 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
@@ -1070,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1221,6 +1251,11 @@
         <v>67</v>
       </c>
     </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1228,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1531,6 +1566,20 @@
       </c>
       <c r="D19" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -788,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -953,7 +953,7 @@
         <v>71</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K3" t="s">
         <v>65</v>
@@ -1265,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
   <si>
     <t>person_id</t>
   </si>
@@ -181,9 +181,6 @@
     <t>act_ID</t>
   </si>
   <si>
-    <t>act_name</t>
-  </si>
-  <si>
     <t>action_ID</t>
   </si>
   <si>
@@ -407,6 +404,9 @@
   </si>
   <si>
     <t>academic writing</t>
+  </si>
+  <si>
+    <t>action_name</t>
   </si>
 </sst>
 </file>
@@ -788,7 +788,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -876,22 +876,22 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>1881</v>
@@ -900,48 +900,48 @@
         <v>1936</v>
       </c>
       <c r="I2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" t="s">
         <v>63</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>64</v>
       </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
       <c r="O2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R2" s="4">
         <v>42919</v>
       </c>
       <c r="S2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T2" s="4">
         <v>42919</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>1881</v>
@@ -950,42 +950,42 @@
         <v>1936</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R3" s="4">
         <v>42919</v>
       </c>
       <c r="S3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T3" s="4">
         <v>42919</v>
       </c>
       <c r="U3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>123</v>
       </c>
-      <c r="C4" t="s">
-        <v>124</v>
-      </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
   <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1012,13 +1012,13 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1027,10 +1027,10 @@
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -1060,7 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
@@ -1102,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1148,7 +1150,7 @@
         <v>37</v>
       </c>
       <c r="L1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M1" t="s">
         <v>20</v>
@@ -1165,95 +1167,95 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2">
         <v>1932</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2">
         <v>1932</v>
       </c>
       <c r="I2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>77</v>
       </c>
       <c r="F3">
         <v>1932</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H3">
         <v>1932</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1268,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1306,280 +1308,496 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="4">
         <v>42919</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4">
         <v>42919</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
+      <c r="E4" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
+      <c r="E5" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
         <v>93</v>
       </c>
-      <c r="B7" t="s">
-        <v>94</v>
-      </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E7" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
         <v>95</v>
       </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E8" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
-        <v>100</v>
-      </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="E10" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E11" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E12" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" t="s">
         <v>105</v>
       </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E13" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" t="s">
-        <v>108</v>
-      </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E14" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="B15" t="s">
-        <v>110</v>
-      </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" t="s">
-        <v>84</v>
+      <c r="E20" s="4">
+        <v>42919</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="4">
+        <v>42919</v>
+      </c>
+      <c r="H20" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1811,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1628,7 +1846,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1678,7 +1896,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:H1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1719,7 +1937,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:G1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1756,18 +1974,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="341">
   <si>
     <t>person_id</t>
   </si>
@@ -388,9 +388,6 @@
     <t>ZH</t>
   </si>
   <si>
-    <t>P0002</t>
-  </si>
-  <si>
     <t>Gao</t>
   </si>
   <si>
@@ -407,6 +404,648 @@
   </si>
   <si>
     <t>action_name</t>
+  </si>
+  <si>
+    <t>Genzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanchu </t>
+  </si>
+  <si>
+    <t>Mou</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Mang</t>
+  </si>
+  <si>
+    <t>Peng</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Bei</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang </t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang </t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>Xie</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Hui</t>
+  </si>
+  <si>
+    <t>Piao</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t>Gu</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Siao</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>Rae</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Xiaomei</t>
+  </si>
+  <si>
+    <t>Dunbai</t>
+  </si>
+  <si>
+    <t>Langlang</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Gang</t>
+  </si>
+  <si>
+    <t>Xiaochun</t>
+  </si>
+  <si>
+    <t>Chuan</t>
+  </si>
+  <si>
+    <t>Zhongnan</t>
+  </si>
+  <si>
+    <t>Dao</t>
+  </si>
+  <si>
+    <t>Haoyuan</t>
+  </si>
+  <si>
+    <t>Desheng</t>
+  </si>
+  <si>
+    <t>Yifan</t>
+  </si>
+  <si>
+    <t>Qun</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>Lusheng</t>
+  </si>
+  <si>
+    <t>Shiying</t>
+  </si>
+  <si>
+    <t>Heci</t>
+  </si>
+  <si>
+    <t>Sanbai</t>
+  </si>
+  <si>
+    <t>Haiquan</t>
+  </si>
+  <si>
+    <t>Tiesheng</t>
+  </si>
+  <si>
+    <t>Shuangqin</t>
+  </si>
+  <si>
+    <t>Xinhua</t>
+  </si>
+  <si>
+    <t>Jiuxing</t>
+  </si>
+  <si>
+    <t>Shabei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangzu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shixian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziren </t>
+  </si>
+  <si>
+    <t>Jiren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunquan </t>
+  </si>
+  <si>
+    <t>Zhongjing</t>
+  </si>
+  <si>
+    <t>Xiaozhen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiulian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fu </t>
+  </si>
+  <si>
+    <t>Zhong</t>
+  </si>
+  <si>
+    <t>Xiaoling</t>
+  </si>
+  <si>
+    <t>Ying</t>
+  </si>
+  <si>
+    <t>Aihe</t>
+  </si>
+  <si>
+    <t>Xiaolong</t>
+  </si>
+  <si>
+    <t>Weici</t>
+  </si>
+  <si>
+    <t>Shengxian</t>
+  </si>
+  <si>
+    <t>Pingzao</t>
+  </si>
+  <si>
+    <t>Xianjun</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Yunhong</t>
+  </si>
+  <si>
+    <t>Tianshi</t>
+  </si>
+  <si>
+    <t>Haiou</t>
+  </si>
+  <si>
+    <t>Yongsheng</t>
+  </si>
+  <si>
+    <t>Liufang</t>
+  </si>
+  <si>
+    <t>Wailu</t>
+  </si>
+  <si>
+    <t>Jiegang</t>
+  </si>
+  <si>
+    <t>Guozhen</t>
+  </si>
+  <si>
+    <t>Zhi</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Xiguang</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Zhenzhou</t>
+  </si>
+  <si>
+    <t>Lulin</t>
+  </si>
+  <si>
+    <t>Zhixin</t>
+  </si>
+  <si>
+    <t>Runfeng</t>
+  </si>
+  <si>
+    <t>Xiamin</t>
+  </si>
+  <si>
+    <t>Dingyue</t>
+  </si>
+  <si>
+    <t>Huili</t>
+  </si>
+  <si>
+    <t>Dawei</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>to1972or1973</t>
+  </si>
+  <si>
+    <t>-1972or 1973</t>
+  </si>
+  <si>
+    <t>1943 or 1944?</t>
+  </si>
+  <si>
+    <t>1936 (?)</t>
+  </si>
+  <si>
+    <t>1946 (?)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Sichuan Tibetan area</t>
+  </si>
+  <si>
+    <t>Laixi, Shandong</t>
+  </si>
+  <si>
+    <t>Xichang, Ningnan</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>chongqing</t>
+  </si>
+  <si>
+    <t>Shenqiu, Henan</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Xianning, Hubei</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>天堂河农场in Beijing (?)</t>
+  </si>
+  <si>
+    <t>Beidahuang</t>
+  </si>
+  <si>
+    <t>time_of_rustication_start</t>
+  </si>
+  <si>
+    <t>time_of_rustication_end</t>
+  </si>
+  <si>
+    <t> 宣化军区 Military District in Xuanhua County,  Zhangjiakoushi City, Hebei Province</t>
+  </si>
+  <si>
+    <t>1969-1979 imprisoned</t>
+  </si>
+  <si>
+    <t>imprisoned</t>
+  </si>
+  <si>
+    <t>1969-</t>
+  </si>
+  <si>
+    <t>classified as rightist and sent to Shangdon to do labor work</t>
+  </si>
+  <si>
+    <t>1967 joined the Red guard</t>
+  </si>
+  <si>
+    <t>1973 (?)</t>
+  </si>
+  <si>
+    <t>1969 (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Yes (?)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 76, 79, 80., Zhang Langlang 1999:52</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.; Wang Shiqiang 2014: 75, 76, 79, 80.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.; Wang Shiqiang 2014: 79</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188; Wang Shiqiang 2014: 78, 80</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188; Wang Shiqiang 2014: 75-77</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 190; Wang Shiqiang 2014: 76, 77, 80</t>
+  </si>
+  <si>
+    <t>Duo Duo 1999: 196; Wang Shiqiang 2014: 75, 80.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 191</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 194</t>
+  </si>
+  <si>
+    <t>Duo Duo 1999: 197</t>
+  </si>
+  <si>
+    <t>Zhou Duo 1999: 210</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 219ff.</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 220</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 229; Wang Shiqiang 2014: 74-75</t>
+  </si>
+  <si>
+    <t>Gao Hua 2006: 132-139</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 76, 80.</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 79, 80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75-76,  80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76, 77</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76, 80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 78, 80; Wu Hong 2012: 116-125</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 78, Zhang Langlang 1999:51</t>
+  </si>
+  <si>
+    <t>Huang Guangzu 2010</t>
+  </si>
+  <si>
+    <t>Zhou Ziren 2010</t>
+  </si>
+  <si>
+    <t>Bai Hua 2010</t>
+  </si>
+  <si>
+    <t>Sha Mou 2010</t>
+  </si>
+  <si>
+    <t>Huang Xiaolong 2010</t>
+  </si>
+  <si>
+    <t>Dong Fu 2010</t>
+  </si>
+  <si>
+    <t>Zhao Xiaoling 2010</t>
+  </si>
+  <si>
+    <t>Lin Da 2010</t>
+  </si>
+  <si>
+    <t>Huang Aihe 2008</t>
+  </si>
+  <si>
+    <t>Xie Shengxian 2010</t>
+  </si>
+  <si>
+    <t>Tang Shaojie 2010</t>
+  </si>
+  <si>
+    <t>Piao Mu 2010</t>
+  </si>
+  <si>
+    <t>Wu Yunhong 2010</t>
+  </si>
+  <si>
+    <t>Liu Haiou 2010</t>
+  </si>
+  <si>
+    <t>Chi Zehou 2010</t>
+  </si>
+  <si>
+    <t>zugong tongxun 1980</t>
+  </si>
+  <si>
+    <t>He Zhaowu 2011</t>
+  </si>
+  <si>
+    <t>Qi Zhi 2011</t>
+  </si>
+  <si>
+    <t>Li Qian 2010</t>
+  </si>
+  <si>
+    <t>Siao Eva 1994</t>
+  </si>
+  <si>
+    <t>Nanchu 2001</t>
+  </si>
+  <si>
+    <t>Gao Yuan 1987</t>
+  </si>
+  <si>
+    <t>Zhang Langlang  1999:51</t>
+  </si>
+  <si>
+    <t>Zhang Langlang and Liao Yiwu 1999:52</t>
+  </si>
+  <si>
+    <t>Zhong, Wang, Bai 2001</t>
+  </si>
+  <si>
+    <t>赵振开</t>
+  </si>
+  <si>
+    <t>栗世征; 毛头</t>
+  </si>
+  <si>
+    <t>岳重</t>
+  </si>
+  <si>
+    <t>Shi Zhi 食指</t>
+  </si>
+  <si>
+    <t>周照明</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>王东渝</t>
+  </si>
+  <si>
+    <t>章世箐</t>
+  </si>
+  <si>
+    <t>盛峻峰</t>
+  </si>
+  <si>
+    <t>黄叙钱</t>
+  </si>
+  <si>
+    <t>刘辉宣</t>
+  </si>
+  <si>
+    <t>杨小凯</t>
+  </si>
+  <si>
+    <t>于铁生</t>
   </si>
 </sst>
 </file>
@@ -418,7 +1057,7 @@
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -460,13 +1099,32 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -505,12 +1163,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -788,7 +1452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -796,20 +1460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="11" style="4"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="11" style="4"/>
+    <col min="22" max="22" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -826,55 +1490,61 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -890,32 +1560,26 @@
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1881</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1936</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>61</v>
-      </c>
-      <c r="R2" s="4">
-        <v>42919</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
       </c>
       <c r="T2" s="4">
         <v>42919</v>
@@ -923,8 +1587,14 @@
       <c r="U2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="4">
+        <v>42919</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -940,32 +1610,26 @@
       <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1881</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1936</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="4">
-        <v>42919</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
       </c>
       <c r="T3" s="4">
         <v>42919</v>
@@ -973,19 +1637,2435 @@
       <c r="U3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
+      <c r="V3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="B6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="T6" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="B7" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1969</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="S7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="T7" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="B8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T8" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="B9" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="T9" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="B10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="T10" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T11" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="T12" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T13" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="B14" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="T14" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="B15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T15" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="B16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="T16" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
+      <c r="B17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>1935</v>
+      </c>
+      <c r="J17">
+        <v>1988</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="T17" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
+      <c r="B18" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="S18" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="T18" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
+      <c r="B19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="S19" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="T19" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U19" t="s">
+        <v>66</v>
+      </c>
+      <c r="V19" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
+      <c r="B20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="T20" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
+      <c r="B21" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="T21" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U21" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
+      <c r="B22" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T22" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
+      <c r="B23" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C23" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1954</v>
+      </c>
+      <c r="J23">
+        <v>2012</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="Q23" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T23" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
+      <c r="B24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>1942</v>
+      </c>
+      <c r="J24">
+        <v>1968</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="Q24" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="T24" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U24" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
+      <c r="B25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="Q25" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="T25" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U25" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
+      <c r="B26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="T26" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U26" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
+      <c r="B27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="S27" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="T27" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U27" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
+      <c r="B28" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="T28" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U28" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
+      <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T29" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U29" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
+      <c r="B30" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="S30" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T30" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U30" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
+      <c r="B31" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="T31" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U31" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
+      <c r="B32" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="Q32" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="T32" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U32" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
+      <c r="B33" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="Q33" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="T33" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U33" t="s">
+        <v>66</v>
+      </c>
+      <c r="V33" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
+      <c r="B34" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1946</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="Q34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T34" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V34" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
+      <c r="B35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I35" s="5">
+        <v>1944</v>
+      </c>
+      <c r="J35">
+        <v>1972</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T35" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U35" t="s">
+        <v>66</v>
+      </c>
+      <c r="V35" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
+      <c r="B36" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T36" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U36" t="s">
+        <v>66</v>
+      </c>
+      <c r="V36" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
+      <c r="B37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1962</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="K37" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="S37" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T37" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V37" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
+      <c r="B38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T38" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U38" t="s">
+        <v>66</v>
+      </c>
+      <c r="V38" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
+      <c r="B39" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T39" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U39" t="s">
+        <v>66</v>
+      </c>
+      <c r="V39" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
+      <c r="B40" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G40" s="5">
+        <v>1964</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="5">
+        <v>1947</v>
+      </c>
+      <c r="J40">
+        <v>1995</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="S40" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T40" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
+      <c r="B41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="Q41" s="5"/>
+      <c r="S41" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T41" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U41" t="s">
+        <v>66</v>
+      </c>
+      <c r="V41" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
+      <c r="B42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="S42" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T42" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U42" t="s">
+        <v>66</v>
+      </c>
+      <c r="V42" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
+      <c r="B43" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1926</v>
+      </c>
+      <c r="J43">
+        <v>2008</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T43" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U43" t="s">
+        <v>66</v>
+      </c>
+      <c r="V43" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
+      <c r="B44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T44" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V44" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
+      <c r="B45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J45">
+        <v>2015</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="S45" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T45" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U45" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
+      <c r="B46" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T46" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U46" t="s">
+        <v>66</v>
+      </c>
+      <c r="V46" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
+      <c r="B47" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I47" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T47" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U47" t="s">
+        <v>66</v>
+      </c>
+      <c r="V47" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
+      <c r="B48" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J48">
+        <v>2014</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T48" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23">
+      <c r="B49" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I49" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T49" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U49" t="s">
+        <v>66</v>
+      </c>
+      <c r="V49" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23">
+      <c r="B50" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T50" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U50" t="s">
+        <v>66</v>
+      </c>
+      <c r="V50" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23">
+      <c r="B51" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5">
+        <v>1932</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T51" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U51" t="s">
+        <v>66</v>
+      </c>
+      <c r="V51" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23">
+      <c r="B52" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1971</v>
+      </c>
+      <c r="G52" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="Q52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T52" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U52" t="s">
+        <v>66</v>
+      </c>
+      <c r="V52" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23">
+      <c r="B53" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5">
+        <v>1940</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="S53" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T53" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U53" t="s">
+        <v>66</v>
+      </c>
+      <c r="V53" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23">
+      <c r="B54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J54">
+        <v>1966</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T54" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U54" t="s">
+        <v>66</v>
+      </c>
+      <c r="V54" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23">
+      <c r="B55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1967</v>
+      </c>
+      <c r="G55" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="5">
+        <v>1958</v>
+      </c>
+      <c r="K55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T55" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U55" t="s">
+        <v>66</v>
+      </c>
+      <c r="V55" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W55" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23">
+      <c r="B56" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="5">
+        <v>1910</v>
+      </c>
+      <c r="J56">
+        <v>1983</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T56" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U56" t="s">
+        <v>66</v>
+      </c>
+      <c r="V56" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23">
+      <c r="B57" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T57" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U57" t="s">
+        <v>66</v>
+      </c>
+      <c r="V57" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23">
+      <c r="B58" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5">
+        <v>1903</v>
+      </c>
+      <c r="J58">
+        <v>1987</v>
+      </c>
+      <c r="K58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="S58" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T58" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U58" t="s">
+        <v>66</v>
+      </c>
+      <c r="V58" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W58" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23">
+      <c r="B59" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5">
+        <v>1893</v>
+      </c>
+      <c r="J59">
+        <v>1980</v>
+      </c>
+      <c r="K59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="S59" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T59" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U59" t="s">
+        <v>66</v>
+      </c>
+      <c r="V59" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23">
+      <c r="B60" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5">
+        <v>1901</v>
+      </c>
+      <c r="J60">
+        <v>1982</v>
+      </c>
+      <c r="K60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T60" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U60" t="s">
+        <v>66</v>
+      </c>
+      <c r="V60" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23">
+      <c r="B61" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="S61" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T61" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U61" t="s">
+        <v>66</v>
+      </c>
+      <c r="V61" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23">
+      <c r="B62" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T62" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U62" t="s">
+        <v>66</v>
+      </c>
+      <c r="V62" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23">
+      <c r="B63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="S63" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T63" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+      <c r="V63" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23">
+      <c r="B64" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5">
+        <v>1948</v>
+      </c>
+      <c r="J64">
+        <v>2004</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U64" t="s">
+        <v>66</v>
+      </c>
+      <c r="V64" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23">
+      <c r="B65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J65">
+        <v>2001</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="T65" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U65" t="s">
+        <v>66</v>
+      </c>
+      <c r="V65" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23">
+      <c r="B66" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1970</v>
+      </c>
+      <c r="G66" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I66" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K66" s="5"/>
+      <c r="Q66" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T66" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U66" t="s">
+        <v>66</v>
+      </c>
+      <c r="V66" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23">
+      <c r="B67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T67" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U67" t="s">
+        <v>66</v>
+      </c>
+      <c r="V67" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23">
+      <c r="B68" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T68" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U68" t="s">
+        <v>66</v>
+      </c>
+      <c r="V68" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W68" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23">
+      <c r="B69" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K69" s="5"/>
+      <c r="Q69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T69" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U69" t="s">
+        <v>66</v>
+      </c>
+      <c r="V69" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23">
+      <c r="B70" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T70" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U70" t="s">
+        <v>66</v>
+      </c>
+      <c r="V70" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23">
+      <c r="B71" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T71" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U71" t="s">
+        <v>66</v>
+      </c>
+      <c r="V71" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23">
+      <c r="B72" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="S72" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T72" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U72" t="s">
+        <v>66</v>
+      </c>
+      <c r="V72" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23">
+      <c r="B73" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T73" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U73" t="s">
+        <v>66</v>
+      </c>
+      <c r="V73" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23">
+      <c r="B74" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T74" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U74" t="s">
+        <v>66</v>
+      </c>
+      <c r="V74" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23">
+      <c r="B75" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T75" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U75" t="s">
+        <v>66</v>
+      </c>
+      <c r="V75" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23">
+      <c r="B76" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G76" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I76" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T76" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U76" t="s">
+        <v>66</v>
+      </c>
+      <c r="V76" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23">
+      <c r="B77" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="T77" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U77" t="s">
+        <v>66</v>
+      </c>
+      <c r="V77" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W77" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23">
+      <c r="B78" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G78" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="Q78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="T78" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U78" t="s">
+        <v>66</v>
+      </c>
+      <c r="V78" s="4">
+        <v>42921</v>
+      </c>
+      <c r="W78" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +4335,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1776,10 +4856,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>126</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1974,7 +5054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1985,7 +5065,7 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
     <sheet name="ActType" sheetId="9" r:id="rId9"/>
     <sheet name="Act" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -412,7 +417,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -523,11 +528,42 @@
     <cellStyle name="貨幣[0]" xfId="5"/>
     <cellStyle name="超連結" xfId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -788,7 +824,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -802,7 +838,7 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="12" max="12" width="14.5" customWidth="1"/>
     <col min="18" max="18" width="11" style="4"/>
@@ -998,13 +1034,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1060,11 +1096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
@@ -1108,11 +1142,11 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1271,10 +1305,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11" style="4"/>
     <col min="7" max="7" width="11" style="4"/>
@@ -1814,7 +1848,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -1849,7 +1883,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1899,7 +1933,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1937,10 +1971,10 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1974,11 +2008,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="544">
   <si>
     <t>person_id</t>
   </si>
@@ -385,9 +390,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>ZH</t>
-  </si>
-  <si>
     <t>Gao</t>
   </si>
   <si>
@@ -1012,15 +1014,9 @@
     <t>赵振开</t>
   </si>
   <si>
-    <t>栗世征; 毛头</t>
-  </si>
-  <si>
     <t>岳重</t>
   </si>
   <si>
-    <t>Shi Zhi 食指</t>
-  </si>
-  <si>
     <t>周照明</t>
   </si>
   <si>
@@ -1046,18 +1042,636 @@
   </si>
   <si>
     <t>于铁生</t>
+  </si>
+  <si>
+    <t>P0002</t>
+  </si>
+  <si>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>P0011</t>
+  </si>
+  <si>
+    <t>P0012</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>P0014</t>
+  </si>
+  <si>
+    <t>P0015</t>
+  </si>
+  <si>
+    <t>P0016</t>
+  </si>
+  <si>
+    <t>P0017</t>
+  </si>
+  <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>P0019</t>
+  </si>
+  <si>
+    <t>P0020</t>
+  </si>
+  <si>
+    <t>P0021</t>
+  </si>
+  <si>
+    <t>P0022</t>
+  </si>
+  <si>
+    <t>P0023</t>
+  </si>
+  <si>
+    <t>P0024</t>
+  </si>
+  <si>
+    <t>P0025</t>
+  </si>
+  <si>
+    <t>P0026</t>
+  </si>
+  <si>
+    <t>P0027</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
+    <t>P0029</t>
+  </si>
+  <si>
+    <t>P0030</t>
+  </si>
+  <si>
+    <t>P0031</t>
+  </si>
+  <si>
+    <t>P0032</t>
+  </si>
+  <si>
+    <t>P0033</t>
+  </si>
+  <si>
+    <t>P0034</t>
+  </si>
+  <si>
+    <t>P0035</t>
+  </si>
+  <si>
+    <t>P0036</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>P0038</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
+    <t>P0040</t>
+  </si>
+  <si>
+    <t>P0041</t>
+  </si>
+  <si>
+    <t>P0042</t>
+  </si>
+  <si>
+    <t>P0043</t>
+  </si>
+  <si>
+    <t>P0044</t>
+  </si>
+  <si>
+    <t>P0045</t>
+  </si>
+  <si>
+    <t>P0046</t>
+  </si>
+  <si>
+    <t>P0047</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>P0053</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>P0068</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>P0070</t>
+  </si>
+  <si>
+    <t>P0071</t>
+  </si>
+  <si>
+    <t>P0072</t>
+  </si>
+  <si>
+    <t>P0073</t>
+  </si>
+  <si>
+    <t>P0074</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>牟</t>
+  </si>
+  <si>
+    <t>敦白</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>朗朗</t>
+  </si>
+  <si>
+    <t>芒</t>
+  </si>
+  <si>
+    <t>克</t>
+  </si>
+  <si>
+    <t>彭</t>
+  </si>
+  <si>
+    <t>刚</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>德升</t>
+  </si>
+  <si>
+    <t>谭</t>
+  </si>
+  <si>
+    <t>小春</t>
+  </si>
+  <si>
+    <t>呈</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>卢</t>
+  </si>
+  <si>
+    <t>中南</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>浩渊</t>
+  </si>
+  <si>
+    <t>根子</t>
+  </si>
+  <si>
+    <t>赵</t>
+  </si>
+  <si>
+    <t>一凡</t>
+  </si>
+  <si>
+    <t>依</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>舵</t>
+  </si>
+  <si>
+    <t>佳</t>
+  </si>
+  <si>
+    <t>严</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>郭</t>
+  </si>
+  <si>
+    <t>路生</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>华</t>
+  </si>
+  <si>
+    <t>世英</t>
+  </si>
+  <si>
+    <t>鹤慈</t>
+  </si>
+  <si>
+    <t>杨</t>
+  </si>
+  <si>
+    <t>三白</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>海泉</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>铁生</t>
+  </si>
+  <si>
+    <t>双芹</t>
+  </si>
+  <si>
+    <t>新华</t>
+  </si>
+  <si>
+    <t>久兴</t>
+  </si>
+  <si>
+    <t>巫</t>
+  </si>
+  <si>
+    <t>鸿</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>沙贝</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>光祖</t>
+  </si>
+  <si>
+    <t>朱</t>
+  </si>
+  <si>
+    <t>时贤</t>
+  </si>
+  <si>
+    <t>孜仁</t>
+  </si>
+  <si>
+    <t>继仁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坤权 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中敬 </t>
+  </si>
+  <si>
+    <t>小振</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>秀濂</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>晓铃</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>婴</t>
+  </si>
+  <si>
+    <t>艾禾</t>
+  </si>
+  <si>
+    <t>晓龙</t>
+  </si>
+  <si>
+    <t>傅</t>
+  </si>
+  <si>
+    <t>惟慈</t>
+  </si>
+  <si>
+    <t>谢</t>
+  </si>
+  <si>
+    <t>声显</t>
+  </si>
+  <si>
+    <t>韩</t>
+  </si>
+  <si>
+    <t>平藻</t>
+  </si>
+  <si>
+    <t>惠</t>
+  </si>
+  <si>
+    <t>宪钧</t>
+  </si>
+  <si>
+    <t>漂</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>允弘</t>
+  </si>
+  <si>
+    <t>天石</t>
+  </si>
+  <si>
+    <t>刘</t>
+  </si>
+  <si>
+    <t>海鸥</t>
+  </si>
+  <si>
+    <t>永胜</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>柳芳</t>
+  </si>
+  <si>
+    <t>侯</t>
+  </si>
+  <si>
+    <t>外庐</t>
+  </si>
+  <si>
+    <t>顾</t>
+  </si>
+  <si>
+    <t>颉刚</t>
+  </si>
+  <si>
+    <t>国桢</t>
+  </si>
+  <si>
+    <t>启</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>桦</t>
+  </si>
+  <si>
+    <t>礼</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>曦光</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高 </t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>振州</t>
+  </si>
+  <si>
+    <t>露林</t>
+  </si>
+  <si>
+    <t>于</t>
+  </si>
+  <si>
+    <t>植信</t>
+  </si>
+  <si>
+    <t>润峰</t>
+  </si>
+  <si>
+    <t>孝敏</t>
+  </si>
+  <si>
+    <t>蒋</t>
+  </si>
+  <si>
+    <t>定粤</t>
+  </si>
+  <si>
+    <t>恢理</t>
+  </si>
+  <si>
+    <t>大伟</t>
+  </si>
+  <si>
+    <t>瑞</t>
+  </si>
+  <si>
+    <t>柏</t>
+  </si>
+  <si>
+    <t>棣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi Zhi </t>
+  </si>
+  <si>
+    <t>食指</t>
+  </si>
+  <si>
+    <t>Zhou Zhaoming</t>
+  </si>
+  <si>
+    <t>Shamo</t>
+  </si>
+  <si>
+    <t>Wang Dongyu</t>
+  </si>
+  <si>
+    <t>Sheng Junfeng</t>
+  </si>
+  <si>
+    <t>Huang Xuqian</t>
+  </si>
+  <si>
+    <t>Liu Huixuan</t>
+  </si>
+  <si>
+    <t>Yang Xiaokai</t>
+  </si>
+  <si>
+    <t>Yu Tiesheng</t>
+  </si>
+  <si>
+    <t>Zhao Zhenkai</t>
+  </si>
+  <si>
+    <t>Li Shizheng</t>
+  </si>
+  <si>
+    <t>栗世征</t>
+  </si>
+  <si>
+    <t>Yue Chong</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1106,8 +1720,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1126,6 +1755,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1136,7 +1777,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1162,8 +1803,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
@@ -1175,8 +1817,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="Link" xfId="9" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2"/>
     <cellStyle name="Standard 3" xfId="1"/>
@@ -1187,11 +1835,42 @@
     <cellStyle name="貨幣[0]" xfId="5"/>
     <cellStyle name="超連結" xfId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1452,7 +2131,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1460,13 +2139,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="11" style="4"/>
@@ -1490,10 +2169,10 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
         <v>262</v>
-      </c>
-      <c r="G1" t="s">
-        <v>263</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -1541,7 +2220,7 @@
         <v>22</v>
       </c>
       <c r="W1" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -1555,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
@@ -1605,7 +2284,7 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
@@ -1644,12 +2323,50 @@
         <v>66</v>
       </c>
     </row>
+    <row r="4" spans="1:23">
+      <c r="A4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>1947</v>
+      </c>
+      <c r="T4" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W4" t="s">
+        <v>412</v>
+      </c>
+    </row>
     <row r="5" spans="1:23">
-      <c r="B5" s="5" t="s">
-        <v>129</v>
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>176</v>
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1660,26 +2377,44 @@
       <c r="K5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="S5" s="5"/>
+      <c r="T5" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W5" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
       <c r="B6" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K6" s="5"/>
       <c r="Q6" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T6" s="4">
         <v>42921</v>
@@ -1688,64 +2423,78 @@
         <v>66</v>
       </c>
       <c r="V6" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="5">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T7" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5">
         <v>1969</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <v>1969</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>1950</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="T7" s="4">
-        <v>42921</v>
-      </c>
-      <c r="U7" t="s">
-        <v>66</v>
-      </c>
-      <c r="V7" s="4">
-        <v>42921</v>
-      </c>
-      <c r="W7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="K8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="T8" s="4">
         <v>42921</v>
@@ -1754,27 +2503,39 @@
         <v>66</v>
       </c>
       <c r="V8" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W8" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
       <c r="B9" s="5" t="s">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>419</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1969</v>
+      </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5">
+        <v>1950</v>
+      </c>
       <c r="K9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="S9" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T9" s="4">
         <v>42921</v>
@@ -1783,27 +2544,35 @@
         <v>66</v>
       </c>
       <c r="V9" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5">
+        <v>1953</v>
+      </c>
       <c r="K10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="S10" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="T10" s="4">
         <v>42921</v>
@@ -1812,29 +2581,35 @@
         <v>66</v>
       </c>
       <c r="V10" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W10" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>59</v>
+        <v>420</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>421</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="K11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="S11" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="T11" s="4">
         <v>42921</v>
@@ -1843,39 +2618,33 @@
         <v>66</v>
       </c>
       <c r="V11" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W11" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1949</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>272</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T12" s="4">
         <v>42921</v>
@@ -1884,31 +2653,33 @@
         <v>66</v>
       </c>
       <c r="V12" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W12" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>136</v>
+        <v>424</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>136</v>
+        <v>425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5">
-        <v>1951</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="I13" s="5"/>
+      <c r="K13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="T13" s="4">
         <v>42921</v>
@@ -1917,29 +2688,33 @@
         <v>66</v>
       </c>
       <c r="V13" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
       <c r="B14" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5">
-        <v>1949</v>
-      </c>
+      <c r="I14" s="5"/>
       <c r="K14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="S14" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="T14" s="4">
         <v>42921</v>
@@ -1948,29 +2723,33 @@
         <v>66</v>
       </c>
       <c r="V14" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
       <c r="B15" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5">
-        <v>1951</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>330</v>
-      </c>
+      <c r="I15" s="5"/>
+      <c r="K15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="S15" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T15" s="4">
         <v>42921</v>
@@ -1979,29 +2758,35 @@
         <v>66</v>
       </c>
       <c r="V15" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W15" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>344</v>
+      </c>
       <c r="B16" s="5" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="K16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="S16" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="T16" s="4">
         <v>42921</v>
@@ -2010,36 +2795,35 @@
         <v>66</v>
       </c>
       <c r="V16" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
       <c r="B17" s="5" t="s">
-        <v>139</v>
+        <v>428</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5">
-        <v>1935</v>
-      </c>
-      <c r="J17">
-        <v>1988</v>
+        <v>1950</v>
       </c>
       <c r="K17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="S17" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="T17" s="4">
         <v>42921</v>
@@ -2048,29 +2832,45 @@
         <v>66</v>
       </c>
       <c r="V17" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="I18" s="5">
-        <v>1947</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="Q18" s="5"/>
+        <v>1949</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="S18" s="5" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="T18" s="4">
         <v>42921</v>
@@ -2079,27 +2879,45 @@
         <v>66</v>
       </c>
       <c r="V18" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>141</v>
+        <v>430</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="Q19" s="5"/>
+        <v>431</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="S19" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="T19" s="4">
         <v>42921</v>
@@ -2108,29 +2926,37 @@
         <v>66</v>
       </c>
       <c r="V19" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
       <c r="B20" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>188</v>
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5">
-        <v>1953</v>
-      </c>
-      <c r="K20" s="5"/>
+        <v>1951</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>541</v>
+      </c>
       <c r="Q20" s="5"/>
       <c r="S20" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="T20" s="4">
         <v>42921</v>
@@ -2139,29 +2965,37 @@
         <v>66</v>
       </c>
       <c r="V20" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
       <c r="B21" s="5" t="s">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>169</v>
+        <v>432</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5">
-        <v>1954</v>
-      </c>
-      <c r="K21" s="5"/>
+        <v>1951</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>542</v>
+      </c>
       <c r="Q21" s="5"/>
       <c r="S21" s="5" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="T21" s="4">
         <v>42921</v>
@@ -2170,31 +3004,35 @@
         <v>66</v>
       </c>
       <c r="V21" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>347</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5">
-        <v>1948</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>331</v>
-      </c>
+        <v>1949</v>
+      </c>
+      <c r="K22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="T22" s="4">
         <v>42921</v>
@@ -2203,34 +3041,35 @@
         <v>66</v>
       </c>
       <c r="V22" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>347</v>
+      </c>
       <c r="B23" s="5" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>122</v>
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5">
-        <v>1954</v>
-      </c>
-      <c r="J23">
-        <v>2012</v>
+        <v>1949</v>
       </c>
       <c r="K23" s="5"/>
-      <c r="Q23" s="7" t="s">
-        <v>273</v>
-      </c>
+      <c r="Q23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="T23" s="4">
         <v>42921</v>
@@ -2239,34 +3078,35 @@
         <v>66</v>
       </c>
       <c r="V23" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
       <c r="B24" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>190</v>
+        <v>126</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>63</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5">
-        <v>1942</v>
-      </c>
-      <c r="J24">
-        <v>1968</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="Q24" s="9" t="s">
-        <v>274</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="T24" s="4">
         <v>42921</v>
@@ -2275,31 +3115,35 @@
         <v>66</v>
       </c>
       <c r="V24" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>191</v>
+        <v>435</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>69</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5">
-        <v>1943</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="Q25" s="9" t="s">
-        <v>274</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="T25" s="4">
         <v>42921</v>
@@ -2308,27 +3152,35 @@
         <v>66</v>
       </c>
       <c r="V25" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>349</v>
+      </c>
       <c r="B26" s="5" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5">
+        <v>1952</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="T26" s="4">
         <v>42921</v>
@@ -2337,29 +3189,35 @@
         <v>66</v>
       </c>
       <c r="V26" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
       <c r="B27" s="5" t="s">
-        <v>145</v>
+        <v>422</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>193</v>
+        <v>423</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
-      <c r="I27" s="9" t="s">
-        <v>244</v>
+      <c r="I27" s="5">
+        <v>1952</v>
       </c>
       <c r="K27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="S27" s="5" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="T27" s="4">
         <v>42921</v>
@@ -2368,29 +3226,42 @@
         <v>66</v>
       </c>
       <c r="V27" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
       <c r="H28" s="5"/>
-      <c r="I28" s="9" t="s">
-        <v>245</v>
+      <c r="I28" s="5">
+        <v>1935</v>
+      </c>
+      <c r="J28">
+        <v>1988</v>
       </c>
       <c r="K28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="S28" s="5" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="T28" s="4">
         <v>42921</v>
@@ -2399,31 +3270,42 @@
         <v>66</v>
       </c>
       <c r="V28" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
       <c r="B29" s="5" t="s">
-        <v>59</v>
+        <v>436</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="I29" s="5"/>
+        <v>437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>1935</v>
+      </c>
+      <c r="J29">
+        <v>1988</v>
+      </c>
       <c r="K29" s="5"/>
-      <c r="Q29" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="Q29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="T29" s="4">
         <v>42921</v>
@@ -2432,27 +3314,35 @@
         <v>66</v>
       </c>
       <c r="V29" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23">
-      <c r="B30" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>196</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="I30" s="5">
+        <v>1947</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="S30" s="5" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="T30" s="4">
         <v>42921</v>
@@ -2461,29 +3351,35 @@
         <v>66</v>
       </c>
       <c r="V30" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23">
-      <c r="B31" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>197</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
-      <c r="I31" s="7" t="s">
-        <v>241</v>
+      <c r="I31" s="5">
+        <v>1947</v>
       </c>
       <c r="K31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="T31" s="4">
         <v>42921</v>
@@ -2492,35 +3388,33 @@
         <v>66</v>
       </c>
       <c r="V31" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23">
-      <c r="B32" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="Q32" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>301</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="T32" s="4">
         <v>42921</v>
@@ -2529,28 +3423,33 @@
         <v>66</v>
       </c>
       <c r="V32" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>352</v>
+      </c>
       <c r="B33" s="5" t="s">
-        <v>149</v>
+        <v>440</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>198</v>
+        <v>441</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="Q33" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="Q33" s="5"/>
       <c r="S33" s="5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="T33" s="4">
         <v>42921</v>
@@ -2559,37 +3458,35 @@
         <v>66</v>
       </c>
       <c r="V33" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>353</v>
+      </c>
       <c r="B34" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>247</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="5">
-        <v>1946</v>
+        <v>1953</v>
       </c>
       <c r="K34" s="5"/>
-      <c r="Q34" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="Q34" s="5"/>
       <c r="S34" s="5" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="T34" s="4">
         <v>42921</v>
@@ -2598,38 +3495,35 @@
         <v>66</v>
       </c>
       <c r="V34" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
       <c r="B35" s="5" t="s">
-        <v>151</v>
+        <v>422</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>247</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5">
-        <v>1944</v>
-      </c>
-      <c r="J35">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="K35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="S35" s="5" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="T35" s="4">
         <v>42921</v>
@@ -2638,29 +3532,35 @@
         <v>66</v>
       </c>
       <c r="V35" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>354</v>
+      </c>
       <c r="B36" s="5" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>201</v>
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>1954</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="S36" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="T36" s="4">
         <v>42921</v>
@@ -2669,35 +3569,35 @@
         <v>66</v>
       </c>
       <c r="V36" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W36" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>354</v>
+      </c>
       <c r="B37" s="5" t="s">
-        <v>141</v>
+        <v>443</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="5">
-        <v>1962</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="K37" s="5" t="s">
-        <v>332</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="S37" s="5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="T37" s="4">
         <v>42921</v>
@@ -2706,29 +3606,37 @@
         <v>66</v>
       </c>
       <c r="V37" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W37" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" t="s">
+        <v>355</v>
+      </c>
       <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>203</v>
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5">
+        <v>1948</v>
+      </c>
       <c r="K38" s="5" t="s">
-        <v>333</v>
+        <v>530</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="T38" s="4">
         <v>42921</v>
@@ -2737,27 +3645,37 @@
         <v>66</v>
       </c>
       <c r="V38" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
       <c r="B39" s="5" t="s">
-        <v>154</v>
+        <v>445</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>204</v>
+        <v>446</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="I39" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>531</v>
+      </c>
       <c r="Q39" s="5"/>
       <c r="S39" s="5" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="T39" s="4">
         <v>42921</v>
@@ -2766,38 +3684,40 @@
         <v>66</v>
       </c>
       <c r="V39" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" t="s">
+        <v>356</v>
+      </c>
       <c r="B40" s="5" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="F40" s="5">
-        <v>1964</v>
-      </c>
-      <c r="G40" s="5">
-        <v>1964</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>250</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="5">
-        <v>1947</v>
+        <v>1954</v>
       </c>
       <c r="J40">
-        <v>1995</v>
+        <v>2012</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="S40" s="5" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="T40" s="4">
         <v>42921</v>
@@ -2806,27 +3726,40 @@
         <v>66</v>
       </c>
       <c r="V40" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>356</v>
+      </c>
       <c r="B41" s="5" t="s">
-        <v>155</v>
+        <v>447</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>206</v>
+        <v>448</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="I41" s="5">
+        <v>1954</v>
+      </c>
+      <c r="J41">
+        <v>2012</v>
+      </c>
       <c r="K41" s="5"/>
-      <c r="Q41" s="5"/>
+      <c r="Q41" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="S41" s="5" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="T41" s="4">
         <v>42921</v>
@@ -2835,37 +3768,40 @@
         <v>66</v>
       </c>
       <c r="V41" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>357</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>251</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5">
-        <v>1951</v>
-      </c>
-      <c r="K42" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q42" s="5"/>
+        <v>1942</v>
+      </c>
+      <c r="J42">
+        <v>1968</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="Q42" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="S42" s="5" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="T42" s="4">
         <v>42921</v>
@@ -2874,40 +3810,40 @@
         <v>66</v>
       </c>
       <c r="V42" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>357</v>
+      </c>
       <c r="B43" s="5" t="s">
-        <v>156</v>
+        <v>445</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>252</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="5">
-        <v>1926</v>
+        <v>1942</v>
       </c>
       <c r="J43">
-        <v>2008</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q43" s="5"/>
+        <v>1968</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="Q43" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="S43" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="T43" s="4">
         <v>42921</v>
@@ -2916,33 +3852,37 @@
         <v>66</v>
       </c>
       <c r="V43" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>358</v>
+      </c>
       <c r="B44" s="5" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I44" s="5"/>
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
+        <v>1943</v>
+      </c>
       <c r="K44" s="5"/>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="S44" s="5" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="T44" s="4">
         <v>42921</v>
@@ -2951,34 +3891,37 @@
         <v>66</v>
       </c>
       <c r="V44" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" t="s">
+        <v>358</v>
+      </c>
       <c r="B45" s="5" t="s">
-        <v>157</v>
+        <v>416</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>210</v>
+        <v>450</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5">
-        <v>1923</v>
-      </c>
-      <c r="J45">
-        <v>2015</v>
-      </c>
-      <c r="K45" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q45" s="5"/>
+        <v>1943</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="Q45" s="9" t="s">
+        <v>273</v>
+      </c>
       <c r="S45" s="5" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="T45" s="4">
         <v>42921</v>
@@ -2987,18 +3930,24 @@
         <v>66</v>
       </c>
       <c r="V45" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
       <c r="B46" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>211</v>
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
@@ -3007,7 +3956,7 @@
       <c r="K46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="S46" s="5" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="T46" s="4">
         <v>42921</v>
@@ -3016,31 +3965,33 @@
         <v>66</v>
       </c>
       <c r="V46" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" t="s">
+        <v>359</v>
+      </c>
       <c r="B47" s="5" t="s">
-        <v>154</v>
+        <v>451</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>212</v>
+        <v>452</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I47" s="5">
-        <v>1943</v>
-      </c>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
       <c r="K47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="S47" s="5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="T47" s="4">
         <v>42921</v>
@@ -3049,32 +4000,35 @@
         <v>66</v>
       </c>
       <c r="V47" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" t="s">
+        <v>360</v>
+      </c>
       <c r="B48" s="5" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>213</v>
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
-      <c r="I48" s="5">
-        <v>1923</v>
-      </c>
-      <c r="J48">
-        <v>2014</v>
+      <c r="I48" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="K48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="S48" s="5" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="T48" s="4">
         <v>42921</v>
@@ -3083,31 +4037,35 @@
         <v>66</v>
       </c>
       <c r="V48" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" t="s">
+        <v>360</v>
+      </c>
       <c r="B49" s="5" t="s">
-        <v>159</v>
+        <v>453</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>214</v>
+        <v>454</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="I49" s="5">
-        <v>1945</v>
+      <c r="H49" s="5"/>
+      <c r="I49" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="K49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="T49" s="4">
         <v>42921</v>
@@ -3116,29 +4074,35 @@
         <v>66</v>
       </c>
       <c r="V49" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50" t="s">
+        <v>361</v>
+      </c>
       <c r="B50" s="5" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>215</v>
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
-      <c r="H50" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="I50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="9" t="s">
+        <v>244</v>
+      </c>
       <c r="K50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="S50" s="5" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="T50" s="4">
         <v>42921</v>
@@ -3147,29 +4111,35 @@
         <v>66</v>
       </c>
       <c r="V50" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
       <c r="B51" s="5" t="s">
-        <v>161</v>
+        <v>455</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>216</v>
+        <v>456</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-      <c r="I51" s="5">
-        <v>1932</v>
+      <c r="I51" s="9" t="s">
+        <v>244</v>
       </c>
       <c r="K51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="T51" s="4">
         <v>42921</v>
@@ -3178,33 +4148,37 @@
         <v>66</v>
       </c>
       <c r="V51" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
       <c r="B52" s="5" t="s">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1971</v>
-      </c>
-      <c r="G52" s="5">
-        <v>1971</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
       <c r="H52" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="I52" s="5"/>
       <c r="K52" s="5"/>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="S52" s="5" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="T52" s="4">
         <v>42921</v>
@@ -3213,29 +4187,37 @@
         <v>66</v>
       </c>
       <c r="V52" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>362</v>
+      </c>
       <c r="B53" s="5" t="s">
-        <v>147</v>
+        <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>218</v>
+        <v>457</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5">
-        <v>1940</v>
-      </c>
+      <c r="H53" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="5"/>
       <c r="K53" s="5"/>
-      <c r="Q53" s="5"/>
+      <c r="Q53" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="S53" s="5" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="T53" s="4">
         <v>42921</v>
@@ -3244,32 +4226,33 @@
         <v>66</v>
       </c>
       <c r="V53" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>363</v>
+      </c>
       <c r="B54" s="5" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>219</v>
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5">
-        <v>1911</v>
-      </c>
-      <c r="J54">
-        <v>1966</v>
-      </c>
+      <c r="I54" s="5"/>
       <c r="K54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="S54" s="5" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="T54" s="4">
         <v>42921</v>
@@ -3278,35 +4261,33 @@
         <v>66</v>
       </c>
       <c r="V54" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>363</v>
+      </c>
       <c r="B55" s="5" t="s">
-        <v>163</v>
+        <v>416</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F55" s="5">
-        <v>1967</v>
-      </c>
-      <c r="G55" s="5">
-        <v>1967</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="I55" s="5">
-        <v>1958</v>
-      </c>
+        <v>458</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
       <c r="K55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="S55" s="5" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="T55" s="4">
         <v>42921</v>
@@ -3315,36 +4296,35 @@
         <v>66</v>
       </c>
       <c r="V55" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>364</v>
+      </c>
       <c r="B56" s="5" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>221</v>
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
-      <c r="H56" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="I56" s="5">
-        <v>1910</v>
-      </c>
-      <c r="J56">
-        <v>1983</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>337</v>
-      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="S56" s="5" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="T56" s="4">
         <v>42921</v>
@@ -3353,29 +4333,35 @@
         <v>66</v>
       </c>
       <c r="V56" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>364</v>
+      </c>
       <c r="B57" s="5" t="s">
-        <v>164</v>
+        <v>416</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>222</v>
+        <v>459</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="5">
-        <v>1947</v>
+      <c r="I57" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="K57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="S57" s="5" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="T57" s="4">
         <v>42921</v>
@@ -3384,32 +4370,41 @@
         <v>66</v>
       </c>
       <c r="V57" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23">
-      <c r="B58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5">
-        <v>1903</v>
-      </c>
-      <c r="J58">
-        <v>1987</v>
-      </c>
-      <c r="K58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="S58" s="5" t="s">
-        <v>319</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="Q58" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="T58" s="4">
         <v>42921</v>
@@ -3418,32 +4413,41 @@
         <v>66</v>
       </c>
       <c r="V58" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23">
-      <c r="B59" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5">
-        <v>1893</v>
-      </c>
-      <c r="J59">
-        <v>1980</v>
-      </c>
-      <c r="K59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="S59" s="5" t="s">
-        <v>319</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="Q59" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>300</v>
       </c>
       <c r="T59" s="4">
         <v>42921</v>
@@ -3452,32 +4456,34 @@
         <v>66</v>
       </c>
       <c r="V59" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>366</v>
+      </c>
       <c r="B60" s="5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>225</v>
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
       </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5">
-        <v>1901</v>
-      </c>
-      <c r="J60">
-        <v>1982</v>
-      </c>
+      <c r="I60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="S60" s="5" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="T60" s="4">
         <v>42921</v>
@@ -3486,29 +4492,34 @@
         <v>66</v>
       </c>
       <c r="V60" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W60" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
       <c r="B61" s="5" t="s">
-        <v>167</v>
+        <v>462</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>226</v>
+        <v>463</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
-      <c r="H61" s="5" t="s">
-        <v>258</v>
-      </c>
       <c r="I61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="Q61" s="5"/>
+      <c r="Q61" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="S61" s="5" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="T61" s="4">
         <v>42921</v>
@@ -3517,27 +4528,43 @@
         <v>66</v>
       </c>
       <c r="V61" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W61" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="62" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
       <c r="B62" s="5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+        <v>198</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1946</v>
+      </c>
       <c r="K62" s="5"/>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="S62" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="T62" s="4">
         <v>42921</v>
@@ -3546,33 +4573,43 @@
         <v>66</v>
       </c>
       <c r="V62" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>367</v>
+      </c>
       <c r="B63" s="5" t="s">
-        <v>169</v>
+        <v>464</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
+        <v>465</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>264</v>
+      </c>
       <c r="H63" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I63" s="5">
-        <v>1948</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q63" s="5"/>
+        <v>1946</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="Q63" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="S63" s="5" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="T63" s="4">
         <v>42921</v>
@@ -3581,33 +4618,45 @@
         <v>66</v>
       </c>
       <c r="V63" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W63" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>368</v>
+      </c>
       <c r="B64" s="5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="I64" s="5">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="J64">
-        <v>2004</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>339</v>
-      </c>
+        <v>1972</v>
+      </c>
+      <c r="K64" s="5"/>
       <c r="Q64" s="5"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="T64" s="4">
         <v>42921</v>
       </c>
@@ -3615,32 +4664,44 @@
         <v>66</v>
       </c>
       <c r="V64" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W64" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
       <c r="B65" s="5" t="s">
-        <v>170</v>
+        <v>466</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
+        <v>467</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="I65" s="5">
-        <v>1911</v>
+        <v>1944</v>
       </c>
       <c r="J65">
-        <v>2001</v>
+        <v>1972</v>
       </c>
       <c r="K65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="S65" s="5" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="T65" s="4">
         <v>42921</v>
@@ -3649,37 +4710,35 @@
         <v>66</v>
       </c>
       <c r="V65" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>369</v>
+      </c>
       <c r="B66" s="5" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1970</v>
-      </c>
-      <c r="G66" s="5">
-        <v>1973</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I66" s="5">
-        <v>1953</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="I66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="Q66" s="5" t="s">
-        <v>276</v>
-      </c>
+      <c r="Q66" s="5"/>
       <c r="S66" s="5" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="T66" s="4">
         <v>42921</v>
@@ -3688,29 +4747,35 @@
         <v>66</v>
       </c>
       <c r="V66" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>369</v>
+      </c>
       <c r="B67" s="5" t="s">
-        <v>121</v>
+        <v>440</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>231</v>
+        <v>468</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5">
-        <v>1952</v>
-      </c>
+      <c r="H67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I67" s="5"/>
       <c r="K67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="S67" s="5" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="T67" s="4">
         <v>42921</v>
@@ -3719,27 +4784,41 @@
         <v>66</v>
       </c>
       <c r="V67" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>370</v>
+      </c>
       <c r="B68" s="5" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1962</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="I68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>532</v>
+      </c>
       <c r="Q68" s="5"/>
       <c r="S68" s="5" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="T68" s="4">
         <v>42921</v>
@@ -3748,29 +4827,41 @@
         <v>66</v>
       </c>
       <c r="V68" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W68" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
       <c r="B69" s="5" t="s">
-        <v>146</v>
+        <v>440</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K69" s="5"/>
+        <v>469</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1962</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="Q69" s="5"/>
       <c r="S69" s="5" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="T69" s="4">
         <v>42921</v>
@@ -3779,31 +4870,35 @@
         <v>66</v>
       </c>
       <c r="V69" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>371</v>
+      </c>
       <c r="B70" s="5" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>234</v>
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
-      <c r="H70" s="8" t="s">
-        <v>260</v>
-      </c>
+      <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="S70" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="T70" s="4">
         <v>42921</v>
@@ -3812,27 +4907,35 @@
         <v>66</v>
       </c>
       <c r="V70" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
       <c r="B71" s="5" t="s">
-        <v>130</v>
+        <v>416</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>235</v>
+        <v>470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="Q71" s="5"/>
       <c r="S71" s="5" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="T71" s="4">
         <v>42921</v>
@@ -3841,18 +4944,24 @@
         <v>66</v>
       </c>
       <c r="V71" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="72" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
       <c r="B72" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>236</v>
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
@@ -3861,7 +4970,7 @@
       <c r="K72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="S72" s="5" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="T72" s="4">
         <v>42921</v>
@@ -3870,18 +4979,24 @@
         <v>66</v>
       </c>
       <c r="V72" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W72" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
       <c r="B73" s="5" t="s">
-        <v>172</v>
+        <v>464</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>237</v>
+        <v>471</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
@@ -3890,7 +5005,7 @@
       <c r="K73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="S73" s="5" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="T73" s="4">
         <v>42921</v>
@@ -3899,27 +5014,44 @@
         <v>66</v>
       </c>
       <c r="V73" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W73" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
       <c r="B74" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+        <v>204</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1964</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1947</v>
+      </c>
+      <c r="J74">
+        <v>1995</v>
+      </c>
       <c r="K74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="S74" s="5" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="T74" s="4">
         <v>42921</v>
@@ -3928,27 +5060,44 @@
         <v>66</v>
       </c>
       <c r="V74" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W74" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>373</v>
+      </c>
       <c r="B75" s="5" t="s">
-        <v>130</v>
+        <v>464</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+        <v>472</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1964</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1947</v>
+      </c>
+      <c r="J75">
+        <v>1995</v>
+      </c>
       <c r="K75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="S75" s="5" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="T75" s="4">
         <v>42921</v>
@@ -3957,35 +5106,33 @@
         <v>66</v>
       </c>
       <c r="V75" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W75" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>374</v>
+      </c>
       <c r="B76" s="5" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F76" s="5">
-        <v>1968</v>
-      </c>
-      <c r="G76" s="5">
-        <v>1973</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I76" s="5">
-        <v>1950</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
       <c r="K76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="S76" s="5" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="T76" s="4">
         <v>42921</v>
@@ -3994,29 +5141,33 @@
         <v>66</v>
       </c>
       <c r="V76" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
       <c r="B77" s="5" t="s">
-        <v>168</v>
+        <v>473</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>240</v>
+        <v>474</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="5">
-        <v>1954</v>
-      </c>
+      <c r="I77" s="5"/>
       <c r="K77" s="5"/>
       <c r="Q77" s="5"/>
       <c r="S77" s="5" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="T77" s="4">
         <v>42921</v>
@@ -4025,35 +5176,43 @@
         <v>66</v>
       </c>
       <c r="V77" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W77" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="78" spans="2:23">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F78" s="5">
-        <v>1969</v>
-      </c>
-      <c r="G78" s="5">
-        <v>1973</v>
+        <v>206</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I78" s="5">
-        <v>1954</v>
-      </c>
-      <c r="K78" s="5"/>
+        <v>1951</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>534</v>
+      </c>
       <c r="Q78" s="5"/>
       <c r="S78" s="5" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="T78" s="4">
         <v>42921</v>
@@ -4062,10 +5221,2863 @@
         <v>66</v>
       </c>
       <c r="V78" s="4">
-        <v>42921</v>
+        <v>42923</v>
       </c>
       <c r="W78" t="s">
-        <v>66</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>375</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T79" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U79" t="s">
+        <v>66</v>
+      </c>
+      <c r="V79" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1926</v>
+      </c>
+      <c r="J80">
+        <v>2008</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T80" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U80" t="s">
+        <v>66</v>
+      </c>
+      <c r="V80" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1926</v>
+      </c>
+      <c r="J81">
+        <v>2008</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T81" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U81" t="s">
+        <v>66</v>
+      </c>
+      <c r="V81" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T82" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U82" t="s">
+        <v>66</v>
+      </c>
+      <c r="V82" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" t="s">
+        <v>377</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T83" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U83" t="s">
+        <v>66</v>
+      </c>
+      <c r="V83" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J84">
+        <v>2015</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T84" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U84" t="s">
+        <v>66</v>
+      </c>
+      <c r="V84" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W84" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J85">
+        <v>2015</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T85" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U85" t="s">
+        <v>66</v>
+      </c>
+      <c r="V85" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T86" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U86" t="s">
+        <v>66</v>
+      </c>
+      <c r="V86" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T87" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U87" t="s">
+        <v>66</v>
+      </c>
+      <c r="V87" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T88" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U88" t="s">
+        <v>66</v>
+      </c>
+      <c r="V88" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T89" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U89" t="s">
+        <v>66</v>
+      </c>
+      <c r="V89" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90" t="s">
+        <v>381</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J90">
+        <v>2014</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T90" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U90" t="s">
+        <v>66</v>
+      </c>
+      <c r="V90" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
+      <c r="A91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J91">
+        <v>2014</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T91" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U91" t="s">
+        <v>66</v>
+      </c>
+      <c r="V91" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
+      <c r="A92" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T92" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U92" t="s">
+        <v>66</v>
+      </c>
+      <c r="V92" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T93" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U93" t="s">
+        <v>66</v>
+      </c>
+      <c r="V93" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
+      <c r="A94" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T94" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U94" t="s">
+        <v>66</v>
+      </c>
+      <c r="V94" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T95" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U95" t="s">
+        <v>66</v>
+      </c>
+      <c r="V95" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5">
+        <v>1932</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T96" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U96" t="s">
+        <v>66</v>
+      </c>
+      <c r="V96" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
+      <c r="A97" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5">
+        <v>1932</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T97" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U97" t="s">
+        <v>66</v>
+      </c>
+      <c r="V97" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1971</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T98" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U98" t="s">
+        <v>66</v>
+      </c>
+      <c r="V98" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1971</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T99" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U99" t="s">
+        <v>66</v>
+      </c>
+      <c r="V99" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5">
+        <v>1940</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T100" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U100" t="s">
+        <v>66</v>
+      </c>
+      <c r="V100" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W100" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
+      <c r="A101" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5">
+        <v>1940</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T101" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U101" t="s">
+        <v>66</v>
+      </c>
+      <c r="V101" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
+      <c r="A102" t="s">
+        <v>387</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J102">
+        <v>1966</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T102" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U102" t="s">
+        <v>66</v>
+      </c>
+      <c r="V102" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23">
+      <c r="A103" t="s">
+        <v>387</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J103">
+        <v>1966</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T103" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U103" t="s">
+        <v>66</v>
+      </c>
+      <c r="V103" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23">
+      <c r="A104" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1967</v>
+      </c>
+      <c r="G104" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1958</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T104" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U104" t="s">
+        <v>66</v>
+      </c>
+      <c r="V104" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23">
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1967</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1958</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T105" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U105" t="s">
+        <v>66</v>
+      </c>
+      <c r="V105" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23">
+      <c r="A106" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1910</v>
+      </c>
+      <c r="J106">
+        <v>1983</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q106" s="5"/>
+      <c r="S106" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T106" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U106" t="s">
+        <v>66</v>
+      </c>
+      <c r="V106" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23">
+      <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1910</v>
+      </c>
+      <c r="J107">
+        <v>1983</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q107" s="5"/>
+      <c r="S107" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T107" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U107" t="s">
+        <v>66</v>
+      </c>
+      <c r="V107" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23">
+      <c r="A108" t="s">
+        <v>390</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T108" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U108" t="s">
+        <v>66</v>
+      </c>
+      <c r="V108" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23">
+      <c r="A109" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="S109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T109" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U109" t="s">
+        <v>66</v>
+      </c>
+      <c r="V109" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23">
+      <c r="A110" t="s">
+        <v>391</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5">
+        <v>1903</v>
+      </c>
+      <c r="J110">
+        <v>1987</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="S110" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T110" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U110" t="s">
+        <v>66</v>
+      </c>
+      <c r="V110" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23">
+      <c r="A111" t="s">
+        <v>391</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5">
+        <v>1903</v>
+      </c>
+      <c r="J111">
+        <v>1987</v>
+      </c>
+      <c r="K111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="S111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T111" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U111" t="s">
+        <v>66</v>
+      </c>
+      <c r="V111" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23">
+      <c r="A112" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5">
+        <v>1893</v>
+      </c>
+      <c r="J112">
+        <v>1980</v>
+      </c>
+      <c r="K112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="S112" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T112" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U112" t="s">
+        <v>66</v>
+      </c>
+      <c r="V112" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23">
+      <c r="A113" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5">
+        <v>1893</v>
+      </c>
+      <c r="J113">
+        <v>1980</v>
+      </c>
+      <c r="K113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="S113" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T113" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U113" t="s">
+        <v>66</v>
+      </c>
+      <c r="V113" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23">
+      <c r="A114" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5">
+        <v>1901</v>
+      </c>
+      <c r="J114">
+        <v>1982</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="S114" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T114" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U114" t="s">
+        <v>66</v>
+      </c>
+      <c r="V114" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23">
+      <c r="A115" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5">
+        <v>1901</v>
+      </c>
+      <c r="J115">
+        <v>1982</v>
+      </c>
+      <c r="K115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="S115" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T115" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U115" t="s">
+        <v>66</v>
+      </c>
+      <c r="V115" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23">
+      <c r="A116" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="S116" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T116" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U116" t="s">
+        <v>66</v>
+      </c>
+      <c r="V116" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23">
+      <c r="A117" t="s">
+        <v>394</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="S117" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T117" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U117" t="s">
+        <v>66</v>
+      </c>
+      <c r="V117" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23">
+      <c r="A118" t="s">
+        <v>395</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="S118" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T118" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U118" t="s">
+        <v>66</v>
+      </c>
+      <c r="V118" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23">
+      <c r="A119" t="s">
+        <v>395</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T119" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U119" t="s">
+        <v>66</v>
+      </c>
+      <c r="V119" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23">
+      <c r="A120" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T120" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U120" t="s">
+        <v>66</v>
+      </c>
+      <c r="V120" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I121" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T121" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U121" t="s">
+        <v>66</v>
+      </c>
+      <c r="V121" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5">
+        <v>1948</v>
+      </c>
+      <c r="J122">
+        <v>2004</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U122" t="s">
+        <v>66</v>
+      </c>
+      <c r="V122" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23">
+      <c r="A123" t="s">
+        <v>397</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5">
+        <v>1948</v>
+      </c>
+      <c r="J123">
+        <v>2004</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U123" t="s">
+        <v>66</v>
+      </c>
+      <c r="V123" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23">
+      <c r="A124" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J124">
+        <v>2001</v>
+      </c>
+      <c r="K124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T124" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U124" t="s">
+        <v>66</v>
+      </c>
+      <c r="V124" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23">
+      <c r="A125" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J125">
+        <v>2001</v>
+      </c>
+      <c r="K125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T125" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U125" t="s">
+        <v>66</v>
+      </c>
+      <c r="V125" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23">
+      <c r="A126" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1970</v>
+      </c>
+      <c r="G126" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I126" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K126" s="5"/>
+      <c r="Q126" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="T126" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U126" t="s">
+        <v>66</v>
+      </c>
+      <c r="V126" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23">
+      <c r="A127" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1970</v>
+      </c>
+      <c r="G127" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I127" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K127" s="5"/>
+      <c r="Q127" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="T127" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U127" t="s">
+        <v>66</v>
+      </c>
+      <c r="V127" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23">
+      <c r="A128" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T128" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U128" t="s">
+        <v>66</v>
+      </c>
+      <c r="V128" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23">
+      <c r="A129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T129" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U129" t="s">
+        <v>66</v>
+      </c>
+      <c r="V129" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23">
+      <c r="A130" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130" t="s">
+        <v>63</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T130" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U130" t="s">
+        <v>66</v>
+      </c>
+      <c r="V130" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23">
+      <c r="A131" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T131" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U131" t="s">
+        <v>66</v>
+      </c>
+      <c r="V131" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W131" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23">
+      <c r="A132" t="s">
+        <v>402</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="S132" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T132" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U132" t="s">
+        <v>66</v>
+      </c>
+      <c r="V132" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23">
+      <c r="A133" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="S133" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T133" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U133" t="s">
+        <v>66</v>
+      </c>
+      <c r="V133" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23">
+      <c r="A134" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I134" s="5"/>
+      <c r="K134" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q134" s="5"/>
+      <c r="S134" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T134" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U134" t="s">
+        <v>66</v>
+      </c>
+      <c r="V134" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W134" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23">
+      <c r="A135" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I135" s="5"/>
+      <c r="K135" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q135" s="5"/>
+      <c r="S135" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T135" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U135" t="s">
+        <v>66</v>
+      </c>
+      <c r="V135" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23">
+      <c r="A136" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="S136" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T136" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U136" t="s">
+        <v>66</v>
+      </c>
+      <c r="V136" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23">
+      <c r="A137" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="S137" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T137" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U137" t="s">
+        <v>66</v>
+      </c>
+      <c r="V137" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23">
+      <c r="A138" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="S138" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T138" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U138" t="s">
+        <v>66</v>
+      </c>
+      <c r="V138" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23">
+      <c r="A139" t="s">
+        <v>405</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="S139" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T139" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U139" t="s">
+        <v>66</v>
+      </c>
+      <c r="V139" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23">
+      <c r="A140" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="S140" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T140" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U140" t="s">
+        <v>66</v>
+      </c>
+      <c r="V140" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23">
+      <c r="A141" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="S141" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T141" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U141" t="s">
+        <v>66</v>
+      </c>
+      <c r="V141" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23">
+      <c r="A142" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="S142" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T142" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U142" t="s">
+        <v>66</v>
+      </c>
+      <c r="V142" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23">
+      <c r="A143" t="s">
+        <v>407</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="S143" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T143" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U143" t="s">
+        <v>66</v>
+      </c>
+      <c r="V143" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23">
+      <c r="A144" t="s">
+        <v>408</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="S144" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T144" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U144" t="s">
+        <v>66</v>
+      </c>
+      <c r="V144" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23">
+      <c r="A145" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="S145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T145" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U145" t="s">
+        <v>66</v>
+      </c>
+      <c r="V145" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W145" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23">
+      <c r="A146" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I146" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="S146" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T146" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U146" t="s">
+        <v>66</v>
+      </c>
+      <c r="V146" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23">
+      <c r="A147" t="s">
+        <v>409</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I147" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="S147" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T147" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U147" t="s">
+        <v>66</v>
+      </c>
+      <c r="V147" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23">
+      <c r="A148" t="s">
+        <v>410</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="S148" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T148" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U148" t="s">
+        <v>66</v>
+      </c>
+      <c r="V148" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23">
+      <c r="A149" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="S149" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T149" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U149" t="s">
+        <v>66</v>
+      </c>
+      <c r="V149" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23">
+      <c r="A150" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D150" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I150" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="S150" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T150" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U150" t="s">
+        <v>66</v>
+      </c>
+      <c r="V150" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W150" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23">
+      <c r="A151" t="s">
+        <v>411</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="S151" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T151" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U151" t="s">
+        <v>66</v>
+      </c>
+      <c r="V151" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W151" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -4082,9 +8094,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="7" max="7" width="22.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4144,7 +8156,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
@@ -4188,11 +8200,11 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -4335,7 +8347,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4351,10 +8363,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11" style="4"/>
     <col min="7" max="7" width="11" style="4"/>
@@ -4856,10 +8868,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -4894,7 +8906,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -4929,7 +8941,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -4979,7 +8991,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -5020,7 +9032,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -5058,14 +9070,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="545">
   <si>
     <t>person_id</t>
   </si>
@@ -1660,6 +1660,9 @@
   </si>
   <si>
     <t>Yue Chong</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -2141,8 +2144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -2335,6 +2338,9 @@
       </c>
       <c r="D4" t="s">
         <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>544</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="544">
   <si>
     <t>person_id</t>
   </si>
@@ -1267,9 +1267,6 @@
   </si>
   <si>
     <t>OS</t>
-  </si>
-  <si>
-    <t>&lt;&lt;</t>
   </si>
   <si>
     <t>牟</t>
@@ -2144,8 +2141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -2222,8 +2219,8 @@
       <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
-        <v>413</v>
+      <c r="W1" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2340,7 +2337,7 @@
         <v>63</v>
       </c>
       <c r="E4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -2366,10 +2363,10 @@
         <v>338</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>414</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>415</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
@@ -2440,10 +2437,10 @@
         <v>339</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>416</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>417</v>
       </c>
       <c r="D7" t="s">
         <v>69</v>
@@ -2520,10 +2517,10 @@
         <v>340</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>418</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>419</v>
       </c>
       <c r="D9" t="s">
         <v>69</v>
@@ -2598,10 +2595,10 @@
         <v>341</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>420</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>421</v>
       </c>
       <c r="D11" t="s">
         <v>69</v>
@@ -2670,10 +2667,10 @@
         <v>342</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>425</v>
       </c>
       <c r="D13" t="s">
         <v>69</v>
@@ -2740,10 +2737,10 @@
         <v>343</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -2812,10 +2809,10 @@
         <v>344</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>429</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
@@ -2870,7 +2867,7 @@
         <v>1949</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="Q18" s="5" t="s">
         <v>271</v>
@@ -2896,10 +2893,10 @@
         <v>345</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="D19" t="s">
         <v>69</v>
@@ -2958,7 +2955,7 @@
         <v>1951</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q20" s="5"/>
       <c r="S20" s="5" t="s">
@@ -2982,10 +2979,10 @@
         <v>346</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D21" t="s">
         <v>69</v>
@@ -2997,7 +2994,7 @@
         <v>1951</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q21" s="5"/>
       <c r="S21" s="5" t="s">
@@ -3058,10 +3055,10 @@
         <v>347</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>433</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>434</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
@@ -3108,7 +3105,7 @@
         <v>1951</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="S24" s="5" t="s">
@@ -3132,7 +3129,7 @@
         <v>348</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" t="s">
@@ -3206,10 +3203,10 @@
         <v>349</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>423</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
@@ -3287,10 +3284,10 @@
         <v>350</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>436</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>437</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
@@ -3368,10 +3365,10 @@
         <v>351</v>
       </c>
       <c r="B31" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>439</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
@@ -3440,10 +3437,10 @@
         <v>352</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="D33" t="s">
         <v>69</v>
@@ -3512,10 +3509,10 @@
         <v>353</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -3586,10 +3583,10 @@
         <v>354</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="D37" t="s">
         <v>69</v>
@@ -3638,7 +3635,7 @@
         <v>1948</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="S38" s="5" t="s">
@@ -3662,10 +3659,10 @@
         <v>355</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>446</v>
       </c>
       <c r="D39" t="s">
         <v>69</v>
@@ -3677,7 +3674,7 @@
         <v>1948</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="S39" s="5" t="s">
@@ -3743,10 +3740,10 @@
         <v>356</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>447</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>448</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
@@ -3827,10 +3824,10 @@
         <v>357</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
@@ -3908,10 +3905,10 @@
         <v>358</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
@@ -3982,10 +3979,10 @@
         <v>359</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
@@ -4054,10 +4051,10 @@
         <v>360</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>453</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>454</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
@@ -4128,10 +4125,10 @@
         <v>361</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>455</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>456</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
@@ -4207,7 +4204,7 @@
         <v>67</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
@@ -4278,10 +4275,10 @@
         <v>363</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
@@ -4350,10 +4347,10 @@
         <v>364</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D57" t="s">
         <v>69</v>
@@ -4430,10 +4427,10 @@
         <v>365</v>
       </c>
       <c r="B59" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>461</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
@@ -4509,10 +4506,10 @@
         <v>366</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>462</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>463</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
@@ -4590,10 +4587,10 @@
         <v>367</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>465</v>
       </c>
       <c r="D63" t="s">
         <v>69</v>
@@ -4681,10 +4678,10 @@
         <v>368</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>467</v>
       </c>
       <c r="D65" t="s">
         <v>69</v>
@@ -4764,10 +4761,10 @@
         <v>369</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -4820,7 +4817,7 @@
       </c>
       <c r="I68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="S68" s="5" t="s">
@@ -4844,10 +4841,10 @@
         <v>370</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
@@ -4900,7 +4897,7 @@
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="S70" s="5" t="s">
@@ -4924,10 +4921,10 @@
         <v>371</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
@@ -4996,10 +4993,10 @@
         <v>372</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D73" t="s">
         <v>69</v>
@@ -5077,10 +5074,10 @@
         <v>373</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D75" t="s">
         <v>69</v>
@@ -5158,10 +5155,10 @@
         <v>374</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>474</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
@@ -5214,7 +5211,7 @@
         <v>1951</v>
       </c>
       <c r="K78" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="S78" s="5" t="s">
@@ -5238,10 +5235,10 @@
         <v>375</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="D79" t="s">
         <v>69</v>
@@ -5331,10 +5328,10 @@
         <v>376</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="D81" t="s">
         <v>69</v>
@@ -5420,10 +5417,10 @@
         <v>377</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D83" t="s">
         <v>69</v>
@@ -5479,7 +5476,7 @@
         <v>2015</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="S84" s="5" t="s">
@@ -5503,10 +5500,10 @@
         <v>378</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>481</v>
       </c>
       <c r="D85" t="s">
         <v>69</v>
@@ -5580,10 +5577,10 @@
         <v>379</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D87" t="s">
         <v>69</v>
@@ -5654,10 +5651,10 @@
         <v>380</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
         <v>69</v>
@@ -5733,10 +5730,10 @@
         <v>381</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>484</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>485</v>
       </c>
       <c r="D91" t="s">
         <v>69</v>
@@ -5812,10 +5809,10 @@
         <v>382</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="C93" s="5" t="s">
         <v>486</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>487</v>
       </c>
       <c r="D93" t="s">
         <v>69</v>
@@ -5888,10 +5885,10 @@
         <v>383</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="C95" s="5" t="s">
         <v>488</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>489</v>
       </c>
       <c r="D95" t="s">
         <v>69</v>
@@ -5962,10 +5959,10 @@
         <v>384</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>491</v>
       </c>
       <c r="D97" t="s">
         <v>69</v>
@@ -6040,10 +6037,10 @@
         <v>385</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>493</v>
       </c>
       <c r="D99" t="s">
         <v>69</v>
@@ -6118,10 +6115,10 @@
         <v>386</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>494</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>495</v>
       </c>
       <c r="D101" t="s">
         <v>69</v>
@@ -6195,10 +6192,10 @@
         <v>387</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D103" t="s">
         <v>69</v>
@@ -6278,10 +6275,10 @@
         <v>388</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>498</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
@@ -6341,7 +6338,7 @@
         <v>1983</v>
       </c>
       <c r="K106" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="Q106" s="5"/>
       <c r="S106" s="5" t="s">
@@ -6365,10 +6362,10 @@
         <v>389</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D107" t="s">
         <v>69</v>
@@ -6446,10 +6443,10 @@
         <v>390</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="C109" s="5" t="s">
         <v>500</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="D109" t="s">
         <v>69</v>
@@ -6523,10 +6520,10 @@
         <v>391</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="C111" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="D111" t="s">
         <v>69</v>
@@ -6603,10 +6600,10 @@
         <v>392</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="C113" s="5" t="s">
         <v>504</v>
-      </c>
-      <c r="C113" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="D113" t="s">
         <v>69</v>
@@ -6683,10 +6680,10 @@
         <v>393</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D115" t="s">
         <v>69</v>
@@ -6760,10 +6757,10 @@
         <v>394</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>507</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>508</v>
       </c>
       <c r="D117" t="s">
         <v>69</v>
@@ -6832,10 +6829,10 @@
         <v>395</v>
       </c>
       <c r="B119" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="C119" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>510</v>
       </c>
       <c r="D119" t="s">
         <v>69</v>
@@ -6884,7 +6881,7 @@
         <v>1948</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="Q120" s="5"/>
       <c r="S120" s="5" t="s">
@@ -6908,10 +6905,10 @@
         <v>396</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="C121" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>512</v>
       </c>
       <c r="D121" t="s">
         <v>69</v>
@@ -6967,7 +6964,7 @@
         <v>2004</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="Q122" s="5"/>
       <c r="S122" s="5"/>
@@ -6989,10 +6986,10 @@
         <v>397</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D123" t="s">
         <v>69</v>
@@ -7069,10 +7066,10 @@
         <v>398</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D125" t="s">
         <v>69</v>
@@ -7236,10 +7233,10 @@
         <v>400</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C129" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>516</v>
       </c>
       <c r="D129" t="s">
         <v>69</v>
@@ -7308,10 +7305,10 @@
         <v>401</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D131" t="s">
         <v>69</v>
@@ -7380,10 +7377,10 @@
         <v>402</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D133" t="s">
         <v>69</v>
@@ -7432,7 +7429,7 @@
       </c>
       <c r="I134" s="5"/>
       <c r="K134" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q134" s="5"/>
       <c r="S134" s="5" t="s">
@@ -7456,10 +7453,10 @@
         <v>403</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="C135" s="5" t="s">
         <v>519</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>520</v>
       </c>
       <c r="D135" t="s">
         <v>69</v>
@@ -7530,10 +7527,10 @@
         <v>404</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D137" t="s">
         <v>69</v>
@@ -7600,10 +7597,10 @@
         <v>405</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D139" t="s">
         <v>69</v>
@@ -7670,10 +7667,10 @@
         <v>406</v>
       </c>
       <c r="B141" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C141" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="C141" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="D141" t="s">
         <v>69</v>
@@ -7740,10 +7737,10 @@
         <v>407</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D143" t="s">
         <v>69</v>
@@ -7810,10 +7807,10 @@
         <v>408</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D145" t="s">
         <v>69</v>
@@ -7888,10 +7885,10 @@
         <v>409</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D147" t="s">
         <v>69</v>
@@ -7968,10 +7965,10 @@
         <v>410</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="C149" s="5" t="s">
         <v>528</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>529</v>
       </c>
       <c r="D149" t="s">
         <v>69</v>
@@ -8096,9 +8093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
@@ -8159,7 +8154,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -8202,9 +8197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
   <cols>
@@ -8366,7 +8359,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
@@ -8994,7 +8987,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="1035" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1827,7 +1822,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Link" xfId="9" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2"/>
     <cellStyle name="Standard 3" xfId="1"/>
@@ -2134,7 +2129,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2144,11 +2139,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="14" max="14" width="14.5" customWidth="1"/>
     <col min="20" max="20" width="11" style="4"/>
@@ -8096,13 +8091,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -8159,10 +8154,10 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L10" sqref="I10:L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
@@ -8202,15 +8197,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -8369,10 +8364,10 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="11" style="4"/>
     <col min="7" max="7" width="11" style="4"/>
@@ -8912,7 +8907,7 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -8947,7 +8942,7 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -8997,7 +8992,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -9038,7 +9033,7 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -9076,7 +9071,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">

--- a/SRC/all_new_2.xlsx
+++ b/SRC/all_new_2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olli\Documents\GitHub\ReadingData\SRC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HALmob/Documents/gits/ReadingData/SRC/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="20730" windowHeight="11760" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="20740" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,20 @@
     <sheet name="ActType" sheetId="9" r:id="rId9"/>
     <sheet name="Act" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="545">
   <si>
     <t>person_id</t>
   </si>
@@ -390,40 +398,1291 @@
     <t>note</t>
   </si>
   <si>
-    <t>ZH</t>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>Hua</t>
+  </si>
+  <si>
+    <t>T00002</t>
+  </si>
+  <si>
+    <t>G019</t>
+  </si>
+  <si>
+    <t>academic writing</t>
+  </si>
+  <si>
+    <t>action_name</t>
+  </si>
+  <si>
+    <t>Genzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanchu </t>
+  </si>
+  <si>
+    <t>Mou</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Mang</t>
+  </si>
+  <si>
+    <t>Peng</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Bei</t>
+  </si>
+  <si>
+    <t>Duo</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>Zhao</t>
+  </si>
+  <si>
+    <t>Yi</t>
+  </si>
+  <si>
+    <t>Zhou</t>
+  </si>
+  <si>
+    <t>Yan</t>
+  </si>
+  <si>
+    <t>Guo</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Song</t>
+  </si>
+  <si>
+    <t>Gan</t>
+  </si>
+  <si>
+    <t>Wu</t>
+  </si>
+  <si>
+    <t>Hong</t>
+  </si>
+  <si>
+    <t>Dong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhou </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang </t>
+  </si>
+  <si>
+    <t>Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang </t>
+  </si>
+  <si>
+    <t>Jin</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Fu</t>
+  </si>
+  <si>
+    <t>Xie</t>
+  </si>
+  <si>
+    <t>Han</t>
+  </si>
+  <si>
+    <t>Hui</t>
+  </si>
+  <si>
+    <t>Piao</t>
+  </si>
+  <si>
+    <t>Liu</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Hou</t>
+  </si>
+  <si>
+    <t>Gu</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Bai</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
+  <si>
+    <t>Siao</t>
+  </si>
+  <si>
+    <t>Yu</t>
+  </si>
+  <si>
+    <t>Jiang</t>
+  </si>
+  <si>
+    <t>Rae</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Xiaomei</t>
+  </si>
+  <si>
+    <t>Dunbai</t>
+  </si>
+  <si>
+    <t>Langlang</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Gang</t>
+  </si>
+  <si>
+    <t>Xiaochun</t>
+  </si>
+  <si>
+    <t>Chuan</t>
+  </si>
+  <si>
+    <t>Zhongnan</t>
+  </si>
+  <si>
+    <t>Dao</t>
+  </si>
+  <si>
+    <t>Haoyuan</t>
+  </si>
+  <si>
+    <t>Desheng</t>
+  </si>
+  <si>
+    <t>Yifan</t>
+  </si>
+  <si>
+    <t>Qun</t>
+  </si>
+  <si>
+    <t>Jia</t>
+  </si>
+  <si>
+    <t>Lusheng</t>
+  </si>
+  <si>
+    <t>Shiying</t>
+  </si>
+  <si>
+    <t>Heci</t>
+  </si>
+  <si>
+    <t>Sanbai</t>
+  </si>
+  <si>
+    <t>Haiquan</t>
+  </si>
+  <si>
+    <t>Tiesheng</t>
+  </si>
+  <si>
+    <t>Shuangqin</t>
+  </si>
+  <si>
+    <t>Xinhua</t>
+  </si>
+  <si>
+    <t>Jiuxing</t>
+  </si>
+  <si>
+    <t>Shabei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangzu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shixian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziren </t>
+  </si>
+  <si>
+    <t>Jiren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunquan </t>
+  </si>
+  <si>
+    <t>Zhongjing</t>
+  </si>
+  <si>
+    <t>Xiaozhen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xiulian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fu </t>
+  </si>
+  <si>
+    <t>Zhong</t>
+  </si>
+  <si>
+    <t>Xiaoling</t>
+  </si>
+  <si>
+    <t>Ying</t>
+  </si>
+  <si>
+    <t>Aihe</t>
+  </si>
+  <si>
+    <t>Xiaolong</t>
+  </si>
+  <si>
+    <t>Weici</t>
+  </si>
+  <si>
+    <t>Shengxian</t>
+  </si>
+  <si>
+    <t>Pingzao</t>
+  </si>
+  <si>
+    <t>Xianjun</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Yunhong</t>
+  </si>
+  <si>
+    <t>Tianshi</t>
+  </si>
+  <si>
+    <t>Haiou</t>
+  </si>
+  <si>
+    <t>Yongsheng</t>
+  </si>
+  <si>
+    <t>Liufang</t>
+  </si>
+  <si>
+    <t>Wailu</t>
+  </si>
+  <si>
+    <t>Jiegang</t>
+  </si>
+  <si>
+    <t>Guozhen</t>
+  </si>
+  <si>
+    <t>Zhi</t>
+  </si>
+  <si>
+    <t>Ping</t>
+  </si>
+  <si>
+    <t>Xiguang</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Yuan</t>
+  </si>
+  <si>
+    <t>Zhenzhou</t>
+  </si>
+  <si>
+    <t>Lulin</t>
+  </si>
+  <si>
+    <t>Zhixin</t>
+  </si>
+  <si>
+    <t>Runfeng</t>
+  </si>
+  <si>
+    <t>Xiamin</t>
+  </si>
+  <si>
+    <t>Dingyue</t>
+  </si>
+  <si>
+    <t>Huili</t>
+  </si>
+  <si>
+    <t>Dawei</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>to1972or1973</t>
+  </si>
+  <si>
+    <t>-1972or 1973</t>
+  </si>
+  <si>
+    <t>1943 or 1944?</t>
+  </si>
+  <si>
+    <t>1936 (?)</t>
+  </si>
+  <si>
+    <t>1946 (?)</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Sichuan</t>
+  </si>
+  <si>
+    <t>Yunnan</t>
+  </si>
+  <si>
+    <t>Sichuan Tibetan area</t>
+  </si>
+  <si>
+    <t>Laixi, Shandong</t>
+  </si>
+  <si>
+    <t>Xichang, Ningnan</t>
+  </si>
+  <si>
+    <t>Shandong</t>
+  </si>
+  <si>
+    <t>Chongqing</t>
+  </si>
+  <si>
+    <t>chongqing</t>
+  </si>
+  <si>
+    <t>Shenqiu, Henan</t>
+  </si>
+  <si>
+    <t>Xinjiang</t>
+  </si>
+  <si>
+    <t>Xianning, Hubei</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Heilongjiang</t>
+  </si>
+  <si>
+    <t>天堂河农场in Beijing (?)</t>
+  </si>
+  <si>
+    <t>Beidahuang</t>
+  </si>
+  <si>
+    <t>time_of_rustication_start</t>
+  </si>
+  <si>
+    <t>time_of_rustication_end</t>
+  </si>
+  <si>
+    <t> 宣化军区 Military District in Xuanhua County,  Zhangjiakoushi City, Hebei Province</t>
+  </si>
+  <si>
+    <t>1969-1979 imprisoned</t>
+  </si>
+  <si>
+    <t>imprisoned</t>
+  </si>
+  <si>
+    <t>1969-</t>
+  </si>
+  <si>
+    <t>classified as rightist and sent to Shangdon to do labor work</t>
+  </si>
+  <si>
+    <t>1967 joined the Red guard</t>
+  </si>
+  <si>
+    <t>1973 (?)</t>
+  </si>
+  <si>
+    <t>1969 (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes </t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Yes (?)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 76, 79, 80., Zhang Langlang 1999:52</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.; Wang Shiqiang 2014: 75, 76, 79, 80.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.; Wang Shiqiang 2014: 79</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 183ff.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188; Wang Shiqiang 2014: 78, 80</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 188; Wang Shiqiang 2014: 75-77</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 190; Wang Shiqiang 2014: 76, 77, 80</t>
+  </si>
+  <si>
+    <t>Duo Duo 1999: 196; Wang Shiqiang 2014: 75, 80.</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 191</t>
+  </si>
+  <si>
+    <t>Liao Yiwu, Chen Yong: 194</t>
+  </si>
+  <si>
+    <t>Duo Duo 1999: 197</t>
+  </si>
+  <si>
+    <t>Zhou Duo 1999: 210</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 219ff.</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 220</t>
+  </si>
+  <si>
+    <t>Ma Jia 1999: 229; Wang Shiqiang 2014: 74-75</t>
+  </si>
+  <si>
+    <t>Gao Hua 2006: 132-139</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 76, 80.</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75, 79, 80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 75-76,  80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76, 77</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76, 80</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 76</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 78, 80; Wu Hong 2012: 116-125</t>
+  </si>
+  <si>
+    <t>Wang Shiqiang 2014: 78, Zhang Langlang 1999:51</t>
+  </si>
+  <si>
+    <t>Huang Guangzu 2010</t>
+  </si>
+  <si>
+    <t>Zhou Ziren 2010</t>
+  </si>
+  <si>
+    <t>Bai Hua 2010</t>
+  </si>
+  <si>
+    <t>Sha Mou 2010</t>
+  </si>
+  <si>
+    <t>Huang Xiaolong 2010</t>
+  </si>
+  <si>
+    <t>Dong Fu 2010</t>
+  </si>
+  <si>
+    <t>Zhao Xiaoling 2010</t>
+  </si>
+  <si>
+    <t>Lin Da 2010</t>
+  </si>
+  <si>
+    <t>Huang Aihe 2008</t>
+  </si>
+  <si>
+    <t>Xie Shengxian 2010</t>
+  </si>
+  <si>
+    <t>Tang Shaojie 2010</t>
+  </si>
+  <si>
+    <t>Piao Mu 2010</t>
+  </si>
+  <si>
+    <t>Wu Yunhong 2010</t>
+  </si>
+  <si>
+    <t>Liu Haiou 2010</t>
+  </si>
+  <si>
+    <t>Chi Zehou 2010</t>
+  </si>
+  <si>
+    <t>zugong tongxun 1980</t>
+  </si>
+  <si>
+    <t>He Zhaowu 2011</t>
+  </si>
+  <si>
+    <t>Qi Zhi 2011</t>
+  </si>
+  <si>
+    <t>Li Qian 2010</t>
+  </si>
+  <si>
+    <t>Siao Eva 1994</t>
+  </si>
+  <si>
+    <t>Nanchu 2001</t>
+  </si>
+  <si>
+    <t>Gao Yuan 1987</t>
+  </si>
+  <si>
+    <t>Zhang Langlang  1999:51</t>
+  </si>
+  <si>
+    <t>Zhang Langlang and Liao Yiwu 1999:52</t>
+  </si>
+  <si>
+    <t>Zhong, Wang, Bai 2001</t>
+  </si>
+  <si>
+    <t>赵振开</t>
+  </si>
+  <si>
+    <t>岳重</t>
+  </si>
+  <si>
+    <t>周照明</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>王东渝</t>
+  </si>
+  <si>
+    <t>章世箐</t>
+  </si>
+  <si>
+    <t>盛峻峰</t>
+  </si>
+  <si>
+    <t>黄叙钱</t>
+  </si>
+  <si>
+    <t>刘辉宣</t>
+  </si>
+  <si>
+    <t>杨小凯</t>
+  </si>
+  <si>
+    <t>于铁生</t>
   </si>
   <si>
     <t>P0002</t>
   </si>
   <si>
-    <t>Gao</t>
-  </si>
-  <si>
-    <t>Hua</t>
-  </si>
-  <si>
-    <t>T00002</t>
-  </si>
-  <si>
-    <t>G019</t>
-  </si>
-  <si>
-    <t>academic writing</t>
-  </si>
-  <si>
-    <t>action_name</t>
+    <t>P0003</t>
+  </si>
+  <si>
+    <t>P0004</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>P0006</t>
+  </si>
+  <si>
+    <t>P0007</t>
+  </si>
+  <si>
+    <t>P0008</t>
+  </si>
+  <si>
+    <t>P0009</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>P0011</t>
+  </si>
+  <si>
+    <t>P0012</t>
+  </si>
+  <si>
+    <t>P0013</t>
+  </si>
+  <si>
+    <t>P0014</t>
+  </si>
+  <si>
+    <t>P0015</t>
+  </si>
+  <si>
+    <t>P0016</t>
+  </si>
+  <si>
+    <t>P0017</t>
+  </si>
+  <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>P0019</t>
+  </si>
+  <si>
+    <t>P0020</t>
+  </si>
+  <si>
+    <t>P0021</t>
+  </si>
+  <si>
+    <t>P0022</t>
+  </si>
+  <si>
+    <t>P0023</t>
+  </si>
+  <si>
+    <t>P0024</t>
+  </si>
+  <si>
+    <t>P0025</t>
+  </si>
+  <si>
+    <t>P0026</t>
+  </si>
+  <si>
+    <t>P0027</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
+    <t>P0029</t>
+  </si>
+  <si>
+    <t>P0030</t>
+  </si>
+  <si>
+    <t>P0031</t>
+  </si>
+  <si>
+    <t>P0032</t>
+  </si>
+  <si>
+    <t>P0033</t>
+  </si>
+  <si>
+    <t>P0034</t>
+  </si>
+  <si>
+    <t>P0035</t>
+  </si>
+  <si>
+    <t>P0036</t>
+  </si>
+  <si>
+    <t>P0037</t>
+  </si>
+  <si>
+    <t>P0038</t>
+  </si>
+  <si>
+    <t>P0039</t>
+  </si>
+  <si>
+    <t>P0040</t>
+  </si>
+  <si>
+    <t>P0041</t>
+  </si>
+  <si>
+    <t>P0042</t>
+  </si>
+  <si>
+    <t>P0043</t>
+  </si>
+  <si>
+    <t>P0044</t>
+  </si>
+  <si>
+    <t>P0045</t>
+  </si>
+  <si>
+    <t>P0046</t>
+  </si>
+  <si>
+    <t>P0047</t>
+  </si>
+  <si>
+    <t>P0048</t>
+  </si>
+  <si>
+    <t>P0049</t>
+  </si>
+  <si>
+    <t>P0050</t>
+  </si>
+  <si>
+    <t>P0051</t>
+  </si>
+  <si>
+    <t>P0052</t>
+  </si>
+  <si>
+    <t>P0053</t>
+  </si>
+  <si>
+    <t>P0054</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>P0056</t>
+  </si>
+  <si>
+    <t>P0057</t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>P0059</t>
+  </si>
+  <si>
+    <t>P0060</t>
+  </si>
+  <si>
+    <t>P0061</t>
+  </si>
+  <si>
+    <t>P0062</t>
+  </si>
+  <si>
+    <t>P0063</t>
+  </si>
+  <si>
+    <t>P0064</t>
+  </si>
+  <si>
+    <t>P0065</t>
+  </si>
+  <si>
+    <t>P0066</t>
+  </si>
+  <si>
+    <t>P0067</t>
+  </si>
+  <si>
+    <t>P0068</t>
+  </si>
+  <si>
+    <t>P0069</t>
+  </si>
+  <si>
+    <t>P0070</t>
+  </si>
+  <si>
+    <t>P0071</t>
+  </si>
+  <si>
+    <t>P0072</t>
+  </si>
+  <si>
+    <t>P0073</t>
+  </si>
+  <si>
+    <t>P0074</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
+    <t>牟</t>
+  </si>
+  <si>
+    <t>敦白</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>朗朗</t>
+  </si>
+  <si>
+    <t>芒</t>
+  </si>
+  <si>
+    <t>克</t>
+  </si>
+  <si>
+    <t>彭</t>
+  </si>
+  <si>
+    <t>刚</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>德升</t>
+  </si>
+  <si>
+    <t>谭</t>
+  </si>
+  <si>
+    <t>小春</t>
+  </si>
+  <si>
+    <t>呈</t>
+  </si>
+  <si>
+    <t>川</t>
+  </si>
+  <si>
+    <t>卢</t>
+  </si>
+  <si>
+    <t>中南</t>
+  </si>
+  <si>
+    <t>北</t>
+  </si>
+  <si>
+    <t>岛</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>徐</t>
+  </si>
+  <si>
+    <t>浩渊</t>
+  </si>
+  <si>
+    <t>根子</t>
+  </si>
+  <si>
+    <t>赵</t>
+  </si>
+  <si>
+    <t>一凡</t>
+  </si>
+  <si>
+    <t>依</t>
+  </si>
+  <si>
+    <t>群</t>
+  </si>
+  <si>
+    <t>周</t>
+  </si>
+  <si>
+    <t>舵</t>
+  </si>
+  <si>
+    <t>佳</t>
+  </si>
+  <si>
+    <t>严</t>
+  </si>
+  <si>
+    <t>力</t>
+  </si>
+  <si>
+    <t>郭</t>
+  </si>
+  <si>
+    <t>路生</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>华</t>
+  </si>
+  <si>
+    <t>世英</t>
+  </si>
+  <si>
+    <t>鹤慈</t>
+  </si>
+  <si>
+    <t>杨</t>
+  </si>
+  <si>
+    <t>三白</t>
+  </si>
+  <si>
+    <t>宋</t>
+  </si>
+  <si>
+    <t>海泉</t>
+  </si>
+  <si>
+    <t>甘</t>
+  </si>
+  <si>
+    <t>铁生</t>
+  </si>
+  <si>
+    <t>双芹</t>
+  </si>
+  <si>
+    <t>新华</t>
+  </si>
+  <si>
+    <t>久兴</t>
+  </si>
+  <si>
+    <t>巫</t>
+  </si>
+  <si>
+    <t>鸿</t>
+  </si>
+  <si>
+    <t>董</t>
+  </si>
+  <si>
+    <t>沙贝</t>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>光祖</t>
+  </si>
+  <si>
+    <t>朱</t>
+  </si>
+  <si>
+    <t>时贤</t>
+  </si>
+  <si>
+    <t>孜仁</t>
+  </si>
+  <si>
+    <t>继仁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">坤权 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中敬 </t>
+  </si>
+  <si>
+    <t>小振</t>
+  </si>
+  <si>
+    <t>王</t>
+  </si>
+  <si>
+    <t>秀濂</t>
+  </si>
+  <si>
+    <t>东</t>
+  </si>
+  <si>
+    <t>夫</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>晓铃</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>婴</t>
+  </si>
+  <si>
+    <t>艾禾</t>
+  </si>
+  <si>
+    <t>晓龙</t>
+  </si>
+  <si>
+    <t>傅</t>
+  </si>
+  <si>
+    <t>惟慈</t>
+  </si>
+  <si>
+    <t>谢</t>
+  </si>
+  <si>
+    <t>声显</t>
+  </si>
+  <si>
+    <t>韩</t>
+  </si>
+  <si>
+    <t>平藻</t>
+  </si>
+  <si>
+    <t>惠</t>
+  </si>
+  <si>
+    <t>宪钧</t>
+  </si>
+  <si>
+    <t>漂</t>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>吴</t>
+  </si>
+  <si>
+    <t>允弘</t>
+  </si>
+  <si>
+    <t>天石</t>
+  </si>
+  <si>
+    <t>刘</t>
+  </si>
+  <si>
+    <t>海鸥</t>
+  </si>
+  <si>
+    <t>永胜</t>
+  </si>
+  <si>
+    <t>奚</t>
+  </si>
+  <si>
+    <t>柳芳</t>
+  </si>
+  <si>
+    <t>侯</t>
+  </si>
+  <si>
+    <t>外庐</t>
+  </si>
+  <si>
+    <t>顾</t>
+  </si>
+  <si>
+    <t>颉刚</t>
+  </si>
+  <si>
+    <t>国桢</t>
+  </si>
+  <si>
+    <t>启</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>桦</t>
+  </si>
+  <si>
+    <t>礼</t>
+  </si>
+  <si>
+    <t>平</t>
+  </si>
+  <si>
+    <t>曦光</t>
+  </si>
+  <si>
+    <t>叶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高 </t>
+  </si>
+  <si>
+    <t>原</t>
+  </si>
+  <si>
+    <t>振州</t>
+  </si>
+  <si>
+    <t>露林</t>
+  </si>
+  <si>
+    <t>于</t>
+  </si>
+  <si>
+    <t>植信</t>
+  </si>
+  <si>
+    <t>润峰</t>
+  </si>
+  <si>
+    <t>孝敏</t>
+  </si>
+  <si>
+    <t>蒋</t>
+  </si>
+  <si>
+    <t>定粤</t>
+  </si>
+  <si>
+    <t>恢理</t>
+  </si>
+  <si>
+    <t>大伟</t>
+  </si>
+  <si>
+    <t>瑞</t>
+  </si>
+  <si>
+    <t>柏</t>
+  </si>
+  <si>
+    <t>棣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shi Zhi </t>
+  </si>
+  <si>
+    <t>食指</t>
+  </si>
+  <si>
+    <t>Zhou Zhaoming</t>
+  </si>
+  <si>
+    <t>Shamo</t>
+  </si>
+  <si>
+    <t>Wang Dongyu</t>
+  </si>
+  <si>
+    <t>Sheng Junfeng</t>
+  </si>
+  <si>
+    <t>Huang Xuqian</t>
+  </si>
+  <si>
+    <t>Liu Huixuan</t>
+  </si>
+  <si>
+    <t>Yang Xiaokai</t>
+  </si>
+  <si>
+    <t>Yu Tiesheng</t>
+  </si>
+  <si>
+    <t>Zhao Zhenkai</t>
+  </si>
+  <si>
+    <t>Li Shizheng</t>
+  </si>
+  <si>
+    <t>栗世征</t>
+  </si>
+  <si>
+    <t>Yue Chong</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,13 +1724,59 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="SimSun"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -483,7 +1788,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -509,16 +1814,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="10">
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2"/>
     <cellStyle name="Standard 3" xfId="1"/>
     <cellStyle name="一般" xfId="4"/>
@@ -832,20 +2150,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:W151"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="18" max="18" width="11" style="4"/>
-    <col min="20" max="20" width="11" style="4"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="4"/>
+    <col min="22" max="22" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,55 +2180,61 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="W1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -921,37 +2245,31 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>61</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>61</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>1881</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>1936</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>62</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>63</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>64</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>61</v>
-      </c>
-      <c r="R2" s="4">
-        <v>42919</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
       </c>
       <c r="T2" s="4">
         <v>42919</v>
@@ -959,8 +2277,14 @@
       <c r="U2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" s="4">
+        <v>42919</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -971,37 +2295,31 @@
         <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>61</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1881</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>1936</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>70</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>69</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>64</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>61</v>
-      </c>
-      <c r="R3" s="4">
-        <v>42919</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
       </c>
       <c r="T3" s="4">
         <v>42919</v>
@@ -1009,19 +2327,5771 @@
       <c r="U3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="V3" s="4">
+        <v>42919</v>
+      </c>
+      <c r="W3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
-        <v>123</v>
+        <v>338</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>544</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
+        <v>1947</v>
+      </c>
+      <c r="T4" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U4" t="s">
+        <v>66</v>
+      </c>
+      <c r="V4" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V5" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T6" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="T7" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
+      </c>
+      <c r="V7" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1969</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="S8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="T8" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1969</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="S9" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="T9" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U9" t="s">
+        <v>66</v>
+      </c>
+      <c r="V9" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="T10" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U10" t="s">
+        <v>66</v>
+      </c>
+      <c r="V10" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="T11" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W11" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="S12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T12" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U12" t="s">
+        <v>66</v>
+      </c>
+      <c r="V12" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="S13" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T13" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U13" t="s">
+        <v>66</v>
+      </c>
+      <c r="V13" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T14" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U14" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="S15" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="T15" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U15" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W15" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="T16" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U16" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="S17" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="T17" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U17" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T18" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U18" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W18" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="T19" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U19" t="s">
+        <v>66</v>
+      </c>
+      <c r="V19" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="S20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="T20" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V20" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="S21" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="T21" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U21" t="s">
+        <v>66</v>
+      </c>
+      <c r="V21" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="S22" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T22" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U22" t="s">
+        <v>66</v>
+      </c>
+      <c r="V22" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>1949</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="T23" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="S24" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="T24" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U24" t="s">
+        <v>66</v>
+      </c>
+      <c r="V24" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="T25" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U25" t="s">
+        <v>66</v>
+      </c>
+      <c r="V25" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W25" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T26" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U26" t="s">
+        <v>66</v>
+      </c>
+      <c r="V26" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W26" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>349</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="S27" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T27" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U27" t="s">
+        <v>66</v>
+      </c>
+      <c r="V27" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W27" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
+        <v>1935</v>
+      </c>
+      <c r="J28">
+        <v>1988</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="S28" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="T28" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U28" t="s">
+        <v>66</v>
+      </c>
+      <c r="V28" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W28" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>350</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
+        <v>1935</v>
+      </c>
+      <c r="J29">
+        <v>1988</v>
+      </c>
+      <c r="K29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="S29" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="T29" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U29" t="s">
+        <v>66</v>
+      </c>
+      <c r="V29" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W29" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="S30" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="T30" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U30" t="s">
+        <v>66</v>
+      </c>
+      <c r="V30" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W30" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>351</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="S31" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="T31" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U31" t="s">
+        <v>66</v>
+      </c>
+      <c r="V31" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W31" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="S32" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="T32" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U32" t="s">
+        <v>66</v>
+      </c>
+      <c r="V32" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="S33" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="T33" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U33" t="s">
+        <v>66</v>
+      </c>
+      <c r="V33" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>353</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="S34" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="T34" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U34" t="s">
+        <v>66</v>
+      </c>
+      <c r="V34" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="T35" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U35" t="s">
+        <v>66</v>
+      </c>
+      <c r="V35" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>354</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="T36" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U36" t="s">
+        <v>66</v>
+      </c>
+      <c r="V36" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W36" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>354</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="S37" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="T37" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U37" t="s">
+        <v>66</v>
+      </c>
+      <c r="V37" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W37" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="S38" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="T38" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U38" t="s">
+        <v>66</v>
+      </c>
+      <c r="V38" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W38" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>355</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="T39" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U39" t="s">
+        <v>66</v>
+      </c>
+      <c r="V39" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W39" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>356</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
+        <v>1954</v>
+      </c>
+      <c r="J40">
+        <v>2012</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="Q40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T40" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U40" t="s">
+        <v>66</v>
+      </c>
+      <c r="V40" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>356</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
+        <v>1954</v>
+      </c>
+      <c r="J41">
+        <v>2012</v>
+      </c>
+      <c r="K41" s="5"/>
+      <c r="Q41" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="T41" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U41" t="s">
+        <v>66</v>
+      </c>
+      <c r="V41" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W41" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>357</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
+        <v>1942</v>
+      </c>
+      <c r="J42">
+        <v>1968</v>
+      </c>
+      <c r="K42" s="5"/>
+      <c r="Q42" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T42" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U42" t="s">
+        <v>66</v>
+      </c>
+      <c r="V42" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W42" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <v>1942</v>
+      </c>
+      <c r="J43">
+        <v>1968</v>
+      </c>
+      <c r="K43" s="5"/>
+      <c r="Q43" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T43" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U43" t="s">
+        <v>66</v>
+      </c>
+      <c r="V43" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W43" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>358</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K44" s="5"/>
+      <c r="Q44" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T44" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U44" t="s">
+        <v>66</v>
+      </c>
+      <c r="V44" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>358</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K45" s="5"/>
+      <c r="Q45" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="T45" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U45" t="s">
+        <v>66</v>
+      </c>
+      <c r="V45" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>359</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="T46" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U46" t="s">
+        <v>66</v>
+      </c>
+      <c r="V46" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W46" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="T47" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U47" t="s">
+        <v>66</v>
+      </c>
+      <c r="V47" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W47" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="T48" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U48" t="s">
+        <v>66</v>
+      </c>
+      <c r="V48" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="T49" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U49" t="s">
+        <v>66</v>
+      </c>
+      <c r="V49" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W49" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>361</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="S50" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="T50" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U50" t="s">
+        <v>66</v>
+      </c>
+      <c r="V50" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W50" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="S51" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="T51" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U51" t="s">
+        <v>66</v>
+      </c>
+      <c r="V51" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>362</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="Q52" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="T52" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U52" t="s">
+        <v>66</v>
+      </c>
+      <c r="V52" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W52" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>362</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="Q53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="T53" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U53" t="s">
+        <v>66</v>
+      </c>
+      <c r="V53" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W53" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>363</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="S54" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T54" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U54" t="s">
+        <v>66</v>
+      </c>
+      <c r="V54" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W54" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>363</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T55" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U55" t="s">
+        <v>66</v>
+      </c>
+      <c r="V55" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>364</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="S56" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T56" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U56" t="s">
+        <v>66</v>
+      </c>
+      <c r="V56" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="S57" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="T57" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U57" t="s">
+        <v>66</v>
+      </c>
+      <c r="V57" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="Q58" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S58" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="T58" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U58" t="s">
+        <v>66</v>
+      </c>
+      <c r="V58" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W58" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="I59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="Q59" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="S59" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="T59" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U59" t="s">
+        <v>66</v>
+      </c>
+      <c r="V59" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W59" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>366</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="Q60" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="T60" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U60" t="s">
+        <v>66</v>
+      </c>
+      <c r="V60" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W60" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>366</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="Q61" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="T61" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U61" t="s">
+        <v>66</v>
+      </c>
+      <c r="V61" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W61" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>367</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I62" s="5">
+        <v>1946</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="Q62" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="T62" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U62" t="s">
+        <v>66</v>
+      </c>
+      <c r="V62" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W62" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I63" s="5">
+        <v>1946</v>
+      </c>
+      <c r="K63" s="5"/>
+      <c r="Q63" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="T63" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+      <c r="V63" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W63" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1944</v>
+      </c>
+      <c r="J64">
+        <v>1972</v>
+      </c>
+      <c r="K64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="S64" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="T64" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U64" t="s">
+        <v>66</v>
+      </c>
+      <c r="V64" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1944</v>
+      </c>
+      <c r="J65">
+        <v>1972</v>
+      </c>
+      <c r="K65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="S65" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="T65" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U65" t="s">
+        <v>66</v>
+      </c>
+      <c r="V65" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W65" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="S66" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T66" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U66" t="s">
+        <v>66</v>
+      </c>
+      <c r="V66" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T67" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U67" t="s">
+        <v>66</v>
+      </c>
+      <c r="V67" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1962</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="S68" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T68" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U68" t="s">
+        <v>66</v>
+      </c>
+      <c r="V68" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W68" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1962</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q69" s="5"/>
+      <c r="S69" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="T69" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U69" t="s">
+        <v>66</v>
+      </c>
+      <c r="V69" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W69" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>371</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q70" s="5"/>
+      <c r="S70" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T70" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U70" t="s">
+        <v>66</v>
+      </c>
+      <c r="V70" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W70" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>371</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q71" s="5"/>
+      <c r="S71" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T71" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U71" t="s">
+        <v>66</v>
+      </c>
+      <c r="V71" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W71" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="Q72" s="5"/>
+      <c r="S72" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T72" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U72" t="s">
+        <v>66</v>
+      </c>
+      <c r="V72" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W72" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="Q73" s="5"/>
+      <c r="S73" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T73" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U73" t="s">
+        <v>66</v>
+      </c>
+      <c r="V73" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W73" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>373</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" t="s">
+        <v>63</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1964</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1947</v>
+      </c>
+      <c r="J74">
+        <v>1995</v>
+      </c>
+      <c r="K74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T74" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U74" t="s">
+        <v>66</v>
+      </c>
+      <c r="V74" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>373</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1964</v>
+      </c>
+      <c r="G75" s="5">
+        <v>1964</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="I75" s="5">
+        <v>1947</v>
+      </c>
+      <c r="J75">
+        <v>1995</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="S75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="T75" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U75" t="s">
+        <v>66</v>
+      </c>
+      <c r="V75" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W75" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>374</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" t="s">
+        <v>63</v>
+      </c>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="S76" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T76" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U76" t="s">
+        <v>66</v>
+      </c>
+      <c r="V76" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W76" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>374</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="Q77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T77" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U77" t="s">
+        <v>66</v>
+      </c>
+      <c r="V77" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q78" s="5"/>
+      <c r="S78" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T78" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U78" t="s">
+        <v>66</v>
+      </c>
+      <c r="V78" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W78" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>375</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1951</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q79" s="5"/>
+      <c r="S79" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="T79" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U79" t="s">
+        <v>66</v>
+      </c>
+      <c r="V79" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>376</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1926</v>
+      </c>
+      <c r="J80">
+        <v>2008</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q80" s="5"/>
+      <c r="S80" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T80" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U80" t="s">
+        <v>66</v>
+      </c>
+      <c r="V80" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>376</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I81" s="5">
+        <v>1926</v>
+      </c>
+      <c r="J81">
+        <v>2008</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T81" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U81" t="s">
+        <v>66</v>
+      </c>
+      <c r="V81" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W81" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>377</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="S82" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T82" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U82" t="s">
+        <v>66</v>
+      </c>
+      <c r="V82" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W82" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>377</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="Q83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="T83" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U83" t="s">
+        <v>66</v>
+      </c>
+      <c r="V83" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W83" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J84">
+        <v>2015</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q84" s="5"/>
+      <c r="S84" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T84" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U84" t="s">
+        <v>66</v>
+      </c>
+      <c r="V84" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W84" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J85">
+        <v>2015</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T85" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U85" t="s">
+        <v>66</v>
+      </c>
+      <c r="V85" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W85" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>379</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D86" t="s">
+        <v>63</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="S86" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T86" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U86" t="s">
+        <v>66</v>
+      </c>
+      <c r="V86" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W86" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>379</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T87" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U87" t="s">
+        <v>66</v>
+      </c>
+      <c r="V87" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>380</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D88" t="s">
+        <v>63</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I88" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="S88" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T88" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U88" t="s">
+        <v>66</v>
+      </c>
+      <c r="V88" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W88" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>380</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I89" s="5">
+        <v>1943</v>
+      </c>
+      <c r="K89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="S89" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T89" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U89" t="s">
+        <v>66</v>
+      </c>
+      <c r="V89" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W89" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>381</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" t="s">
+        <v>63</v>
+      </c>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J90">
+        <v>2014</v>
+      </c>
+      <c r="K90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T90" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U90" t="s">
+        <v>66</v>
+      </c>
+      <c r="V90" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W90" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>381</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5">
+        <v>1923</v>
+      </c>
+      <c r="J91">
+        <v>2014</v>
+      </c>
+      <c r="K91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="S91" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="T91" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U91" t="s">
+        <v>66</v>
+      </c>
+      <c r="V91" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W91" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>382</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T92" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U92" t="s">
+        <v>66</v>
+      </c>
+      <c r="V92" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W92" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>382</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I93" s="5">
+        <v>1945</v>
+      </c>
+      <c r="K93" s="5"/>
+      <c r="Q93" s="5"/>
+      <c r="S93" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="T93" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U93" t="s">
+        <v>66</v>
+      </c>
+      <c r="V93" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W93" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" t="s">
+        <v>63</v>
+      </c>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T94" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U94" t="s">
+        <v>66</v>
+      </c>
+      <c r="V94" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W94" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="I95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="T95" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U95" t="s">
+        <v>66</v>
+      </c>
+      <c r="V95" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W95" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5">
+        <v>1932</v>
+      </c>
+      <c r="K96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="S96" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T96" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U96" t="s">
+        <v>66</v>
+      </c>
+      <c r="V96" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W96" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5">
+        <v>1932</v>
+      </c>
+      <c r="K97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="T97" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U97" t="s">
+        <v>66</v>
+      </c>
+      <c r="V97" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W97" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>385</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="5">
+        <v>1971</v>
+      </c>
+      <c r="G98" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T98" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U98" t="s">
+        <v>66</v>
+      </c>
+      <c r="V98" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W98" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="F99" s="5">
+        <v>1971</v>
+      </c>
+      <c r="G99" s="5">
+        <v>1971</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="T99" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U99" t="s">
+        <v>66</v>
+      </c>
+      <c r="V99" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W99" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D100" t="s">
+        <v>63</v>
+      </c>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5">
+        <v>1940</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T100" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U100" t="s">
+        <v>66</v>
+      </c>
+      <c r="V100" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W100" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>386</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5">
+        <v>1940</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="S101" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T101" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U101" t="s">
+        <v>66</v>
+      </c>
+      <c r="V101" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W101" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>387</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" t="s">
+        <v>63</v>
+      </c>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J102">
+        <v>1966</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T102" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U102" t="s">
+        <v>66</v>
+      </c>
+      <c r="V102" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W102" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>387</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J103">
+        <v>1966</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T103" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U103" t="s">
+        <v>66</v>
+      </c>
+      <c r="V103" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W103" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F104" s="5">
+        <v>1967</v>
+      </c>
+      <c r="G104" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I104" s="5">
+        <v>1958</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="S104" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T104" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U104" t="s">
+        <v>66</v>
+      </c>
+      <c r="V104" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W104" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="F105" s="5">
+        <v>1967</v>
+      </c>
+      <c r="G105" s="5">
+        <v>1967</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="I105" s="5">
+        <v>1958</v>
+      </c>
+      <c r="K105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="S105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="T105" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U105" t="s">
+        <v>66</v>
+      </c>
+      <c r="V105" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W105" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>389</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>63</v>
+      </c>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I106" s="5">
+        <v>1910</v>
+      </c>
+      <c r="J106">
+        <v>1983</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q106" s="5"/>
+      <c r="S106" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T106" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U106" t="s">
+        <v>66</v>
+      </c>
+      <c r="V106" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W106" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1910</v>
+      </c>
+      <c r="J107">
+        <v>1983</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q107" s="5"/>
+      <c r="S107" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="T107" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U107" t="s">
+        <v>66</v>
+      </c>
+      <c r="V107" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W107" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>390</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T108" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U108" t="s">
+        <v>66</v>
+      </c>
+      <c r="V108" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>390</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5">
+        <v>1947</v>
+      </c>
+      <c r="K109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="S109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="T109" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U109" t="s">
+        <v>66</v>
+      </c>
+      <c r="V109" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W109" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>391</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" t="s">
+        <v>63</v>
+      </c>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5">
+        <v>1903</v>
+      </c>
+      <c r="J110">
+        <v>1987</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="S110" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T110" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U110" t="s">
+        <v>66</v>
+      </c>
+      <c r="V110" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W110" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>391</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5">
+        <v>1903</v>
+      </c>
+      <c r="J111">
+        <v>1987</v>
+      </c>
+      <c r="K111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="S111" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T111" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U111" t="s">
+        <v>66</v>
+      </c>
+      <c r="V111" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W111" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>392</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5">
+        <v>1893</v>
+      </c>
+      <c r="J112">
+        <v>1980</v>
+      </c>
+      <c r="K112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="S112" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T112" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U112" t="s">
+        <v>66</v>
+      </c>
+      <c r="V112" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W112" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>392</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5">
+        <v>1893</v>
+      </c>
+      <c r="J113">
+        <v>1980</v>
+      </c>
+      <c r="K113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="S113" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T113" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U113" t="s">
+        <v>66</v>
+      </c>
+      <c r="V113" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W113" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5">
+        <v>1901</v>
+      </c>
+      <c r="J114">
+        <v>1982</v>
+      </c>
+      <c r="K114" s="5"/>
+      <c r="Q114" s="5"/>
+      <c r="S114" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T114" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U114" t="s">
+        <v>66</v>
+      </c>
+      <c r="V114" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W114" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>393</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5">
+        <v>1901</v>
+      </c>
+      <c r="J115">
+        <v>1982</v>
+      </c>
+      <c r="K115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="S115" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T115" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U115" t="s">
+        <v>66</v>
+      </c>
+      <c r="V115" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W115" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>394</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="Q116" s="5"/>
+      <c r="S116" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T116" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U116" t="s">
+        <v>66</v>
+      </c>
+      <c r="V116" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W116" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>394</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="S117" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="T117" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U117" t="s">
+        <v>66</v>
+      </c>
+      <c r="V117" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W117" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>395</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="Q118" s="5"/>
+      <c r="S118" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T118" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U118" t="s">
+        <v>66</v>
+      </c>
+      <c r="V118" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>395</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="Q119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="T119" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U119" t="s">
+        <v>66</v>
+      </c>
+      <c r="V119" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>396</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T120" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U120" t="s">
+        <v>66</v>
+      </c>
+      <c r="V120" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W120" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>396</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="I121" s="5">
+        <v>1948</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="T121" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U121" t="s">
+        <v>66</v>
+      </c>
+      <c r="V121" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W121" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>397</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5">
+        <v>1948</v>
+      </c>
+      <c r="J122">
+        <v>2004</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q122" s="5"/>
+      <c r="S122" s="5"/>
+      <c r="T122" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U122" t="s">
+        <v>66</v>
+      </c>
+      <c r="V122" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>397</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5">
+        <v>1948</v>
+      </c>
+      <c r="J123">
+        <v>2004</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U123" t="s">
+        <v>66</v>
+      </c>
+      <c r="V123" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W123" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>398</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D124" t="s">
+        <v>63</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J124">
+        <v>2001</v>
+      </c>
+      <c r="K124" s="5"/>
+      <c r="Q124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T124" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U124" t="s">
+        <v>66</v>
+      </c>
+      <c r="V124" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W124" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>398</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5">
+        <v>1911</v>
+      </c>
+      <c r="J125">
+        <v>2001</v>
+      </c>
+      <c r="K125" s="5"/>
+      <c r="Q125" s="5"/>
+      <c r="S125" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T125" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U125" t="s">
+        <v>66</v>
+      </c>
+      <c r="V125" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D126" t="s">
+        <v>63</v>
+      </c>
+      <c r="F126" s="5">
+        <v>1970</v>
+      </c>
+      <c r="G126" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I126" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K126" s="5"/>
+      <c r="Q126" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S126" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="T126" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U126" t="s">
+        <v>66</v>
+      </c>
+      <c r="V126" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W126" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>399</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="F127" s="5">
+        <v>1970</v>
+      </c>
+      <c r="G127" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I127" s="5">
+        <v>1953</v>
+      </c>
+      <c r="K127" s="5"/>
+      <c r="Q127" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="S127" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="T127" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U127" t="s">
+        <v>66</v>
+      </c>
+      <c r="V127" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W127" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D128" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="Q128" s="5"/>
+      <c r="S128" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T128" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U128" t="s">
+        <v>66</v>
+      </c>
+      <c r="V128" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W128" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>400</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5">
+        <v>1952</v>
+      </c>
+      <c r="K129" s="5"/>
+      <c r="Q129" s="5"/>
+      <c r="S129" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="T129" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U129" t="s">
+        <v>66</v>
+      </c>
+      <c r="V129" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>401</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D130" t="s">
+        <v>63</v>
+      </c>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="Q130" s="5"/>
+      <c r="S130" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T130" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U130" t="s">
+        <v>66</v>
+      </c>
+      <c r="V130" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W130" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>401</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T131" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U131" t="s">
+        <v>66</v>
+      </c>
+      <c r="V131" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W131" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>402</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D132" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K132" s="5"/>
+      <c r="Q132" s="5"/>
+      <c r="S132" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T132" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U132" t="s">
+        <v>66</v>
+      </c>
+      <c r="V132" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W132" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="S133" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T133" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U133" t="s">
+        <v>66</v>
+      </c>
+      <c r="V133" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W133" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>403</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I134" s="5"/>
+      <c r="K134" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q134" s="5"/>
+      <c r="S134" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T134" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U134" t="s">
+        <v>66</v>
+      </c>
+      <c r="V134" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W134" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>403</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I135" s="5"/>
+      <c r="K135" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q135" s="5"/>
+      <c r="S135" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T135" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U135" t="s">
+        <v>66</v>
+      </c>
+      <c r="V135" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W135" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>404</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="Q136" s="5"/>
+      <c r="S136" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T136" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U136" t="s">
+        <v>66</v>
+      </c>
+      <c r="V136" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W136" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="K137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="S137" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T137" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U137" t="s">
+        <v>66</v>
+      </c>
+      <c r="V137" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D138" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="5"/>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="K138" s="5"/>
+      <c r="Q138" s="5"/>
+      <c r="S138" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T138" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U138" t="s">
+        <v>66</v>
+      </c>
+      <c r="V138" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>405</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="K139" s="5"/>
+      <c r="Q139" s="5"/>
+      <c r="S139" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T139" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U139" t="s">
+        <v>66</v>
+      </c>
+      <c r="V139" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W139" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>406</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="Q140" s="5"/>
+      <c r="S140" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T140" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U140" t="s">
+        <v>66</v>
+      </c>
+      <c r="V140" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>406</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="F141" s="5"/>
+      <c r="G141" s="5"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="K141" s="5"/>
+      <c r="Q141" s="5"/>
+      <c r="S141" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T141" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U141" t="s">
+        <v>66</v>
+      </c>
+      <c r="V141" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" t="s">
+        <v>63</v>
+      </c>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="S142" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T142" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U142" t="s">
+        <v>66</v>
+      </c>
+      <c r="V142" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W142" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>407</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="S143" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T143" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U143" t="s">
+        <v>66</v>
+      </c>
+      <c r="V143" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>408</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="S144" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T144" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U144" t="s">
+        <v>66</v>
+      </c>
+      <c r="V144" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>408</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="Q145" s="5"/>
+      <c r="S145" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="T145" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U145" t="s">
+        <v>66</v>
+      </c>
+      <c r="V145" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W145" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>409</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="F146" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G146" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I146" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K146" s="5"/>
+      <c r="Q146" s="5"/>
+      <c r="S146" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T146" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U146" t="s">
+        <v>66</v>
+      </c>
+      <c r="V146" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W146" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>409</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="F147" s="5">
+        <v>1968</v>
+      </c>
+      <c r="G147" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="I147" s="5">
+        <v>1950</v>
+      </c>
+      <c r="K147" s="5"/>
+      <c r="Q147" s="5"/>
+      <c r="S147" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="T147" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U147" t="s">
+        <v>66</v>
+      </c>
+      <c r="V147" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W147" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>410</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K148" s="5"/>
+      <c r="Q148" s="5"/>
+      <c r="S148" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T148" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U148" t="s">
+        <v>66</v>
+      </c>
+      <c r="V148" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W148" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="S149" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T149" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U149" t="s">
+        <v>66</v>
+      </c>
+      <c r="V149" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W149" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D150" t="s">
+        <v>63</v>
+      </c>
+      <c r="F150" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G150" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I150" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="S150" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T150" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U150" t="s">
+        <v>66</v>
+      </c>
+      <c r="V150" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W150" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>411</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="F151" s="5">
+        <v>1969</v>
+      </c>
+      <c r="G151" s="5">
+        <v>1973</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I151" s="5">
+        <v>1954</v>
+      </c>
+      <c r="K151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="S151" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="T151" s="4">
+        <v>42921</v>
+      </c>
+      <c r="U151" t="s">
+        <v>66</v>
+      </c>
+      <c r="V151" s="4">
+        <v>42923</v>
+      </c>
+      <c r="W151" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -1034,16 +8104,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="22.58203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -1096,14 +8166,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="I10:L17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1138,18 +8210,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="7" width="17.5" customWidth="1"/>
-    <col min="8" max="8" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +8271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1243,7 +8315,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1287,9 +8359,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1305,16 +8377,16 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="11" style="4"/>
-    <col min="7" max="7" width="11" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -1340,7 +8412,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1366,7 +8438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1392,7 +8464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -1418,7 +8490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -1444,7 +8516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>90</v>
       </c>
@@ -1470,7 +8542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1496,7 +8568,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1522,7 +8594,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1548,7 +8620,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>98</v>
       </c>
@@ -1574,7 +8646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1600,7 +8672,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -1626,7 +8698,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -1652,7 +8724,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>106</v>
       </c>
@@ -1678,7 +8750,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -1704,7 +8776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>110</v>
       </c>
@@ -1730,7 +8802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>112</v>
       </c>
@@ -1756,7 +8828,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -1782,7 +8854,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -1808,12 +8880,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
@@ -1848,9 +8920,9 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -1883,9 +8955,9 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1933,9 +9005,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1971,12 +9043,12 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -2008,16 +9080,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
         <v>20</v>
